--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -15,21 +15,21 @@
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
     <sheet name="Student_Data" sheetId="3" r:id="rId2"/>
     <sheet name="Summary_Results" sheetId="7" r:id="rId3"/>
-    <sheet name="GPA_Chart" sheetId="902" r:id="rId4"/>
-    <sheet name="Gender_Chart" sheetId="903" r:id="rId5"/>
-    <sheet name="Civil_Chart" sheetId="904" r:id="rId6"/>
-    <sheet name="Electrical_Chart" sheetId="905" r:id="rId7"/>
-    <sheet name="CompSys_Chart" sheetId="906" r:id="rId8"/>
-    <sheet name="Software_Chart" sheetId="907" r:id="rId9"/>
-    <sheet name="Mechatronics_Chart" sheetId="908" r:id="rId10"/>
-    <sheet name="Chemmat_Chart" sheetId="909" r:id="rId11"/>
-    <sheet name="Mechanical_Chart" sheetId="910" r:id="rId12"/>
-    <sheet name="Biomedical_Chart" sheetId="911" r:id="rId13"/>
-    <sheet name="EngSci_Chart" sheetId="912" r:id="rId14"/>
-    <sheet name="European(E)_Chart" sheetId="913" r:id="rId15"/>
-    <sheet name="Pacific(E)_Chart" sheetId="914" r:id="rId16"/>
-    <sheet name="Indian(E)_Chart" sheetId="915" r:id="rId17"/>
-    <sheet name="Asian(E)_Chart" sheetId="916" r:id="rId18"/>
+    <sheet name="GPA_Chart" sheetId="947" r:id="rId4"/>
+    <sheet name="Gender_Chart" sheetId="948" r:id="rId5"/>
+    <sheet name="Civil_Chart" sheetId="949" r:id="rId6"/>
+    <sheet name="Electrical_Chart" sheetId="950" r:id="rId7"/>
+    <sheet name="CompSys_Chart" sheetId="951" r:id="rId8"/>
+    <sheet name="Software_Chart" sheetId="952" r:id="rId9"/>
+    <sheet name="Mechatronics_Chart" sheetId="953" r:id="rId10"/>
+    <sheet name="Chemmat_Chart" sheetId="954" r:id="rId11"/>
+    <sheet name="Mechanical_Chart" sheetId="955" r:id="rId12"/>
+    <sheet name="Biomedical_Chart" sheetId="956" r:id="rId13"/>
+    <sheet name="EngSci_Chart" sheetId="957" r:id="rId14"/>
+    <sheet name="European(E)_Chart" sheetId="958" r:id="rId15"/>
+    <sheet name="Pacific(E)_Chart" sheetId="959" r:id="rId16"/>
+    <sheet name="Indian(E)_Chart" sheetId="960" r:id="rId17"/>
+    <sheet name="Asian(E)_Chart" sheetId="961" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="chart_only" localSheetId="1">Student_Data!$K$4</definedName>
@@ -1014,64 +1014,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.4</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.08</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3.25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.23</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.89</c:v>
+                  <c:v>3.31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.07</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.63</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,64 +1115,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94</c:v>
+                  <c:v>1.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.36</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.37</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.82</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.65</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.55</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93</c:v>
+                  <c:v>1.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.86</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.71</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.83</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.76</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.24</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.82</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.25</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.46</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,64 +1206,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.28</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.38</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.52</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.52</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.23</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.28</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,64 +1301,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>3.09</c:v>
+                    <c:v>2.74</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.53</c:v>
+                    <c:v>3.01</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.77</c:v>
+                    <c:v>2.68</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.47</c:v>
+                    <c:v>2.75</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.35</c:v>
+                    <c:v>3.14</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3</c:v>
+                    <c:v>3.08</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.91</c:v>
+                    <c:v>2.19</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.36</c:v>
+                    <c:v>2.2000000000000002</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.6</c:v>
+                    <c:v>2.72</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.22</c:v>
+                    <c:v>2.76</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>0.48</c:v>
+                    <c:v>3.13</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.12</c:v>
+                    <c:v>2.88</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.57</c:v>
+                    <c:v>3.53</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.85</c:v>
+                    <c:v>2.0699999999999998</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>2.98</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.78</c:v>
+                    <c:v>2.16</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.7</c:v>
+                    <c:v>2.99</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>3.21</c:v>
+                    <c:v>3.18</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.61</c:v>
+                    <c:v>2.79</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>2.13</c:v>
+                    <c:v>2.0099999999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1371,64 +1371,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.63</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,64 +1466,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.09</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.77</c:v>
+                  <c:v>2.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.47</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.35</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.91</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.36</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.22</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48</c:v>
+                  <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.12</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.57</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.85</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.78</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7</c:v>
+                  <c:v>2.99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.21</c:v>
+                  <c:v>3.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.61</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.13</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,11 +1539,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="557958944"/>
-        <c:axId val="563566336"/>
+        <c:axId val="781668496"/>
+        <c:axId val="781675552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557958944"/>
+        <c:axId val="781668496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563566336"/>
+        <c:crossAx val="781675552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563566336"/>
+        <c:axId val="781675552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1611,7 +1611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557958944"/>
+        <c:crossAx val="781668496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1818,11 +1818,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1114054968"/>
-        <c:axId val="1114052224"/>
+        <c:axId val="781672808"/>
+        <c:axId val="781678688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1114054968"/>
+        <c:axId val="781672808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +1851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1114052224"/>
+        <c:crossAx val="781678688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1859,7 +1859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1114052224"/>
+        <c:axId val="781678688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1891,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1114054968"/>
+        <c:crossAx val="781672808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2031,10 +2031,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -2049,7 +2049,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2061,13 +2061,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -2079,7 +2079,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -2103,11 +2103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1114065552"/>
-        <c:axId val="1114070256"/>
+        <c:axId val="781679472"/>
+        <c:axId val="781670456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1114065552"/>
+        <c:axId val="781679472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1114070256"/>
+        <c:crossAx val="781670456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2144,7 +2144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1114070256"/>
+        <c:axId val="781670456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2176,7 +2176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1114065552"/>
+        <c:crossAx val="781679472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2316,31 +2316,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16</c:v>
@@ -2352,28 +2352,28 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,11 +2388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="649971544"/>
-        <c:axId val="649968016"/>
+        <c:axId val="729463096"/>
+        <c:axId val="729475248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="649971544"/>
+        <c:axId val="729463096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649968016"/>
+        <c:crossAx val="729475248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649968016"/>
+        <c:axId val="729475248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2461,7 +2461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649971544"/>
+        <c:crossAx val="729463096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,7 +2601,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -2613,13 +2613,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -2634,16 +2634,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -2673,11 +2673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="670029344"/>
-        <c:axId val="670039536"/>
+        <c:axId val="729500336"/>
+        <c:axId val="674044616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="670029344"/>
+        <c:axId val="729500336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670039536"/>
+        <c:crossAx val="674044616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2714,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="670039536"/>
+        <c:axId val="674044616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2746,7 +2746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670029344"/>
+        <c:crossAx val="729500336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,16 +2886,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -2904,25 +2904,25 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
@@ -2931,19 +2931,19 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,11 +2958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1038492880"/>
-        <c:axId val="1038493664"/>
+        <c:axId val="584663768"/>
+        <c:axId val="584664552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1038492880"/>
+        <c:axId val="584663768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,7 +2991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1038493664"/>
+        <c:crossAx val="584664552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2999,7 +2999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038493664"/>
+        <c:axId val="584664552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3031,7 +3031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1038492880"/>
+        <c:crossAx val="584663768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,19 +3174,19 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
@@ -3201,31 +3201,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>8</c:v>
@@ -3243,11 +3243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="649967624"/>
-        <c:axId val="1009837728"/>
+        <c:axId val="584673960"/>
+        <c:axId val="584671216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="649967624"/>
+        <c:axId val="584673960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1009837728"/>
+        <c:crossAx val="584671216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1009837728"/>
+        <c:axId val="584671216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3316,7 +3316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649967624"/>
+        <c:crossAx val="584673960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3462,7 +3462,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -3483,7 +3483,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>28</c:v>
@@ -3501,19 +3501,19 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,7 +3608,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -3629,7 +3629,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -3647,19 +3647,19 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3674,11 +3674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1036684136"/>
-        <c:axId val="1036621808"/>
+        <c:axId val="731083616"/>
+        <c:axId val="731084008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1036684136"/>
+        <c:axId val="731083616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,7 +3707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1036621808"/>
+        <c:crossAx val="731084008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3715,7 +3715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1036621808"/>
+        <c:axId val="731084008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3747,7 +3747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1036684136"/>
+        <c:crossAx val="731083616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3887,7 +3887,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -3944,7 +3944,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,11 +3959,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1036646896"/>
-        <c:axId val="1036653168"/>
+        <c:axId val="731089888"/>
+        <c:axId val="731090672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1036646896"/>
+        <c:axId val="731089888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +3992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1036653168"/>
+        <c:crossAx val="731090672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4000,7 +4000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1036653168"/>
+        <c:axId val="731090672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4032,7 +4032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1036646896"/>
+        <c:crossAx val="731089888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4181,10 +4181,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -4196,13 +4196,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
@@ -4214,22 +4214,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,11 +4244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1094687984"/>
-        <c:axId val="1094685632"/>
+        <c:axId val="729502296"/>
+        <c:axId val="729494848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1094687984"/>
+        <c:axId val="729502296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1094685632"/>
+        <c:crossAx val="729494848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4285,7 +4285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1094685632"/>
+        <c:axId val="729494848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4317,7 +4317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1094687984"/>
+        <c:crossAx val="729502296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4460,28 +4460,28 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -4496,22 +4496,22 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2</c:v>
@@ -4529,11 +4529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1103494760"/>
-        <c:axId val="1103495544"/>
+        <c:axId val="733420424"/>
+        <c:axId val="733423168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1103494760"/>
+        <c:axId val="733420424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,7 +4562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1103495544"/>
+        <c:crossAx val="733423168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4570,7 +4570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1103495544"/>
+        <c:axId val="733423168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4602,7 +4602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1103494760"/>
+        <c:crossAx val="733420424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4745,10 +4745,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -4784,7 +4784,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3</c:v>
@@ -4814,11 +4814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1009837336"/>
-        <c:axId val="1009838904"/>
+        <c:axId val="733396512"/>
+        <c:axId val="733410624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1009837336"/>
+        <c:axId val="733396512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1009838904"/>
+        <c:crossAx val="733410624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4855,7 +4855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1009838904"/>
+        <c:axId val="733410624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4887,7 +4887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1009837336"/>
+        <c:crossAx val="733396512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5033,7 +5033,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -5057,7 +5057,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
@@ -5099,11 +5099,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1009833024"/>
-        <c:axId val="1009833416"/>
+        <c:axId val="674114416"/>
+        <c:axId val="674106576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1009833024"/>
+        <c:axId val="674114416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5132,7 +5132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1009833416"/>
+        <c:crossAx val="674106576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5140,7 +5140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1009833416"/>
+        <c:axId val="674106576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5172,7 +5172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1009833024"/>
+        <c:crossAx val="674114416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5321,7 +5321,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -5330,37 +5330,37 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -5369,7 +5369,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5384,11 +5384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563496424"/>
-        <c:axId val="563499168"/>
+        <c:axId val="674093248"/>
+        <c:axId val="674095208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="563496424"/>
+        <c:axId val="674093248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,7 +5417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563499168"/>
+        <c:crossAx val="674095208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5425,7 +5425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563499168"/>
+        <c:axId val="674095208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5457,7 +5457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563496424"/>
+        <c:crossAx val="674093248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5603,7 +5603,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -5612,16 +5612,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
@@ -5639,7 +5639,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
@@ -5654,7 +5654,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5669,11 +5669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="553620824"/>
-        <c:axId val="438012568"/>
+        <c:axId val="363975416"/>
+        <c:axId val="363974632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="553620824"/>
+        <c:axId val="363975416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5702,7 +5702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438012568"/>
+        <c:crossAx val="363974632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5710,7 +5710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="438012568"/>
+        <c:axId val="363974632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5742,7 +5742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553620824"/>
+        <c:crossAx val="363975416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5765,7 +5765,7 @@
     <tabColor theme="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5778,7 +5778,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5791,7 +5791,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5804,7 +5804,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5817,7 +5817,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5830,7 +5830,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5843,7 +5843,7 @@
     <tabColor theme="5"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5856,7 +5856,7 @@
     <tabColor theme="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5869,7 +5869,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5882,7 +5882,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5895,7 +5895,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5908,7 +5908,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5921,7 +5921,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5934,7 +5934,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5947,7 +5947,7 @@
     <tabColor theme="8"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6441,7 +6441,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6468,7 +6468,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6495,7 +6495,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6522,7 +6522,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6549,7 +6549,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6576,7 +6576,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6603,7 +6603,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6630,7 +6630,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6657,7 +6657,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6684,7 +6684,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6711,7 +6711,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6738,7 +6738,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6765,7 +6765,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6792,7 +6792,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6819,7 +6819,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8654612" cy="6278836"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7900,8 +7900,8 @@
   </sheetPr>
   <dimension ref="A1:T686"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7970,7 +7970,7 @@
         <v>55</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -7999,7 +7999,7 @@
         <v>55</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -8028,7 +8028,7 @@
         <v>55</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>83</v>
@@ -8057,7 +8057,7 @@
         <v>56</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -8108,7 +8108,7 @@
         <v>56</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>23</v>
@@ -8145,7 +8145,7 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>24</v>
@@ -8177,7 +8177,7 @@
         <v>53</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>19</v>
@@ -8209,7 +8209,7 @@
         <v>56</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>20</v>
@@ -8241,7 +8241,7 @@
         <v>55</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>21</v>
@@ -8273,7 +8273,7 @@
         <v>53</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
@@ -8305,7 +8305,7 @@
         <v>55</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -8332,7 +8332,7 @@
         <v>59</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>11</v>
@@ -8369,7 +8369,7 @@
         <v>55</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>12</v>
@@ -8406,7 +8406,7 @@
         <v>58</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -8433,7 +8433,7 @@
         <v>58</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
@@ -8465,7 +8465,7 @@
         <v>56</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
@@ -8497,7 +8497,7 @@
         <v>56</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
@@ -8529,7 +8529,7 @@
         <v>57</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -8552,7 +8552,7 @@
         <v>57</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J21" s="39" t="s">
         <v>82</v>
@@ -8580,7 +8580,7 @@
         <v>76</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>30</v>
@@ -8606,7 +8606,7 @@
         <v>57</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>81</v>
@@ -8632,7 +8632,7 @@
         <v>53</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -8655,7 +8655,7 @@
         <v>59</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>84</v>
@@ -8681,7 +8681,7 @@
         <v>56</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>85</v>
@@ -8739,7 +8739,7 @@
         <v>54</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -8768,7 +8768,7 @@
         <v>53</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>56</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>55</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
         <v>87</v>
@@ -8855,7 +8855,7 @@
         <v>53</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
         <v>88</v>
@@ -8884,7 +8884,7 @@
         <v>58</v>
       </c>
       <c r="H33">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
@@ -8907,7 +8907,7 @@
         <v>56</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
         <v>89</v>
@@ -8933,7 +8933,7 @@
         <v>57</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
         <v>90</v>
@@ -8959,7 +8959,7 @@
         <v>55</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
@@ -8982,7 +8982,7 @@
         <v>57</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
@@ -9005,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
@@ -9028,7 +9028,7 @@
         <v>65</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
@@ -9051,7 +9051,7 @@
         <v>65</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
@@ -9074,7 +9074,7 @@
         <v>57</v>
       </c>
       <c r="H41">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
@@ -9097,7 +9097,7 @@
         <v>53</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
@@ -9120,7 +9120,7 @@
         <v>59</v>
       </c>
       <c r="H43">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
@@ -9143,7 +9143,7 @@
         <v>55</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
@@ -9166,7 +9166,7 @@
         <v>56</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
@@ -9189,7 +9189,7 @@
         <v>57</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
@@ -9212,7 +9212,7 @@
         <v>55</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
@@ -9235,7 +9235,7 @@
         <v>57</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -9258,7 +9258,7 @@
         <v>55</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -9281,7 +9281,7 @@
         <v>53</v>
       </c>
       <c r="H50">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -9304,7 +9304,7 @@
         <v>55</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -9327,7 +9327,7 @@
         <v>58</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -9350,7 +9350,7 @@
         <v>57</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -9373,7 +9373,7 @@
         <v>56</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -9396,7 +9396,7 @@
         <v>59</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -9419,7 +9419,7 @@
         <v>55</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -9442,7 +9442,7 @@
         <v>57</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -9465,7 +9465,7 @@
         <v>57</v>
       </c>
       <c r="H58">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -9488,7 +9488,7 @@
         <v>55</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -9511,7 +9511,7 @@
         <v>53</v>
       </c>
       <c r="H60">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -9534,7 +9534,7 @@
         <v>55</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -9557,7 +9557,7 @@
         <v>58</v>
       </c>
       <c r="H62">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -9580,7 +9580,7 @@
         <v>55</v>
       </c>
       <c r="H63">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -9603,7 +9603,7 @@
         <v>53</v>
       </c>
       <c r="H64">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -9626,7 +9626,7 @@
         <v>57</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -9649,7 +9649,7 @@
         <v>53</v>
       </c>
       <c r="H66">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -9672,7 +9672,7 @@
         <v>55</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -9695,7 +9695,7 @@
         <v>56</v>
       </c>
       <c r="H68">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -9718,7 +9718,7 @@
         <v>57</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -9741,7 +9741,7 @@
         <v>65</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -9764,7 +9764,7 @@
         <v>59</v>
       </c>
       <c r="H71">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -9787,7 +9787,7 @@
         <v>55</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
@@ -9810,7 +9810,7 @@
         <v>58</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -9833,7 +9833,7 @@
         <v>55</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -9856,7 +9856,7 @@
         <v>56</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -9879,7 +9879,7 @@
         <v>56</v>
       </c>
       <c r="H76">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -9902,7 +9902,7 @@
         <v>54</v>
       </c>
       <c r="H77">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
@@ -9925,7 +9925,7 @@
         <v>55</v>
       </c>
       <c r="H78">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -9948,7 +9948,7 @@
         <v>55</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
@@ -9971,7 +9971,7 @@
         <v>55</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
@@ -9994,7 +9994,7 @@
         <v>57</v>
       </c>
       <c r="H81">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -10017,7 +10017,7 @@
         <v>59</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -10040,7 +10040,7 @@
         <v>65</v>
       </c>
       <c r="H83">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -10086,7 +10086,7 @@
         <v>58</v>
       </c>
       <c r="H85">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
@@ -10109,7 +10109,7 @@
         <v>55</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
@@ -10132,7 +10132,7 @@
         <v>53</v>
       </c>
       <c r="H87">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -10155,7 +10155,7 @@
         <v>54</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -10178,7 +10178,7 @@
         <v>65</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
@@ -10201,7 +10201,7 @@
         <v>56</v>
       </c>
       <c r="H90">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
@@ -10224,7 +10224,7 @@
         <v>53</v>
       </c>
       <c r="H91">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
@@ -10247,7 +10247,7 @@
         <v>55</v>
       </c>
       <c r="H92">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
@@ -10270,7 +10270,7 @@
         <v>56</v>
       </c>
       <c r="H93">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
@@ -10293,7 +10293,7 @@
         <v>55</v>
       </c>
       <c r="H94">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
@@ -10316,7 +10316,7 @@
         <v>55</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -10339,7 +10339,7 @@
         <v>55</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -10362,7 +10362,7 @@
         <v>58</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -10385,7 +10385,7 @@
         <v>53</v>
       </c>
       <c r="H98">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -10408,7 +10408,7 @@
         <v>55</v>
       </c>
       <c r="H99">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -10431,7 +10431,7 @@
         <v>55</v>
       </c>
       <c r="H100">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -10454,7 +10454,7 @@
         <v>64</v>
       </c>
       <c r="H101">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -10477,7 +10477,7 @@
         <v>55</v>
       </c>
       <c r="H102">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -10500,7 +10500,7 @@
         <v>65</v>
       </c>
       <c r="H103">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -10546,7 +10546,7 @@
         <v>58</v>
       </c>
       <c r="H105">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
@@ -10569,7 +10569,7 @@
         <v>57</v>
       </c>
       <c r="H106">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
@@ -10592,7 +10592,7 @@
         <v>55</v>
       </c>
       <c r="H107">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
@@ -10615,7 +10615,7 @@
         <v>64</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
@@ -10638,7 +10638,7 @@
         <v>64</v>
       </c>
       <c r="H109">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -10661,7 +10661,7 @@
         <v>56</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
@@ -10684,7 +10684,7 @@
         <v>59</v>
       </c>
       <c r="H111">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
@@ -10707,7 +10707,7 @@
         <v>59</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -10730,7 +10730,7 @@
         <v>57</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
@@ -10753,7 +10753,7 @@
         <v>57</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
@@ -10776,7 +10776,7 @@
         <v>58</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
@@ -10799,7 +10799,7 @@
         <v>56</v>
       </c>
       <c r="H116">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
@@ -10822,7 +10822,7 @@
         <v>56</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
@@ -10845,7 +10845,7 @@
         <v>55</v>
       </c>
       <c r="H118">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
@@ -10868,7 +10868,7 @@
         <v>55</v>
       </c>
       <c r="H119">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
@@ -10891,7 +10891,7 @@
         <v>55</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
@@ -10914,7 +10914,7 @@
         <v>58</v>
       </c>
       <c r="H121">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
@@ -10937,7 +10937,7 @@
         <v>65</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
@@ -10960,7 +10960,7 @@
         <v>58</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
@@ -10983,7 +10983,7 @@
         <v>55</v>
       </c>
       <c r="H124">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
@@ -11006,7 +11006,7 @@
         <v>55</v>
       </c>
       <c r="H125">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
@@ -11029,7 +11029,7 @@
         <v>53</v>
       </c>
       <c r="H126">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -11052,7 +11052,7 @@
         <v>59</v>
       </c>
       <c r="H127">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
@@ -11075,7 +11075,7 @@
         <v>55</v>
       </c>
       <c r="H128">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
@@ -11098,7 +11098,7 @@
         <v>57</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
@@ -11121,7 +11121,7 @@
         <v>56</v>
       </c>
       <c r="H130">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -11144,7 +11144,7 @@
         <v>55</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
@@ -11190,7 +11190,7 @@
         <v>54</v>
       </c>
       <c r="H133">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
@@ -11213,7 +11213,7 @@
         <v>59</v>
       </c>
       <c r="H134">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
@@ -11259,7 +11259,7 @@
         <v>55</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
@@ -11305,7 +11305,7 @@
         <v>55</v>
       </c>
       <c r="H138">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -11328,7 +11328,7 @@
         <v>65</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -11351,7 +11351,7 @@
         <v>55</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -11374,7 +11374,7 @@
         <v>53</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -11397,7 +11397,7 @@
         <v>55</v>
       </c>
       <c r="H142">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -11420,7 +11420,7 @@
         <v>56</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
@@ -11443,7 +11443,7 @@
         <v>57</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
@@ -11466,7 +11466,7 @@
         <v>55</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
@@ -11489,7 +11489,7 @@
         <v>57</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
@@ -11512,7 +11512,7 @@
         <v>56</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
@@ -11535,7 +11535,7 @@
         <v>57</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
@@ -11558,7 +11558,7 @@
         <v>59</v>
       </c>
       <c r="H149">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
@@ -11581,7 +11581,7 @@
         <v>53</v>
       </c>
       <c r="H150">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
@@ -11604,7 +11604,7 @@
         <v>53</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
@@ -11627,7 +11627,7 @@
         <v>55</v>
       </c>
       <c r="H152">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
@@ -11650,7 +11650,7 @@
         <v>56</v>
       </c>
       <c r="H153">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
@@ -11673,7 +11673,7 @@
         <v>57</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
@@ -11696,7 +11696,7 @@
         <v>58</v>
       </c>
       <c r="H155">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
@@ -11719,7 +11719,7 @@
         <v>57</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
@@ -11742,7 +11742,7 @@
         <v>56</v>
       </c>
       <c r="H157">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
@@ -11765,7 +11765,7 @@
         <v>55</v>
       </c>
       <c r="H158">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
@@ -11788,7 +11788,7 @@
         <v>55</v>
       </c>
       <c r="H159">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
@@ -11811,7 +11811,7 @@
         <v>57</v>
       </c>
       <c r="H160">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
@@ -11834,7 +11834,7 @@
         <v>55</v>
       </c>
       <c r="H161">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
@@ -11857,7 +11857,7 @@
         <v>53</v>
       </c>
       <c r="H162">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
@@ -11903,7 +11903,7 @@
         <v>55</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
@@ -11926,7 +11926,7 @@
         <v>57</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
@@ -11949,7 +11949,7 @@
         <v>59</v>
       </c>
       <c r="H166">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
@@ -11972,7 +11972,7 @@
         <v>53</v>
       </c>
       <c r="H167">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
@@ -12018,7 +12018,7 @@
         <v>53</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
@@ -12041,7 +12041,7 @@
         <v>54</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
@@ -12064,7 +12064,7 @@
         <v>56</v>
       </c>
       <c r="H171">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
@@ -12087,7 +12087,7 @@
         <v>57</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
@@ -12110,7 +12110,7 @@
         <v>55</v>
       </c>
       <c r="H173">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
@@ -12133,7 +12133,7 @@
         <v>53</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
@@ -12156,7 +12156,7 @@
         <v>55</v>
       </c>
       <c r="H175">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
@@ -12179,7 +12179,7 @@
         <v>55</v>
       </c>
       <c r="H176">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
@@ -12225,7 +12225,7 @@
         <v>56</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
@@ -12248,7 +12248,7 @@
         <v>59</v>
       </c>
       <c r="H179">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
@@ -12271,7 +12271,7 @@
         <v>57</v>
       </c>
       <c r="H180">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
@@ -12294,7 +12294,7 @@
         <v>55</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
@@ -12317,7 +12317,7 @@
         <v>55</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
@@ -12340,7 +12340,7 @@
         <v>57</v>
       </c>
       <c r="H183">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
@@ -12363,7 +12363,7 @@
         <v>57</v>
       </c>
       <c r="H184">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
@@ -12386,7 +12386,7 @@
         <v>59</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
@@ -12409,7 +12409,7 @@
         <v>59</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
@@ -12432,7 +12432,7 @@
         <v>55</v>
       </c>
       <c r="H187">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
@@ -12455,7 +12455,7 @@
         <v>58</v>
       </c>
       <c r="H188">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
@@ -12478,7 +12478,7 @@
         <v>55</v>
       </c>
       <c r="H189">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
@@ -12501,7 +12501,7 @@
         <v>53</v>
       </c>
       <c r="H190">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
@@ -12524,7 +12524,7 @@
         <v>64</v>
       </c>
       <c r="H191">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
@@ -12547,7 +12547,7 @@
         <v>59</v>
       </c>
       <c r="H192">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
@@ -12570,7 +12570,7 @@
         <v>53</v>
       </c>
       <c r="H193">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
@@ -12593,7 +12593,7 @@
         <v>55</v>
       </c>
       <c r="H194">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
@@ -12639,7 +12639,7 @@
         <v>55</v>
       </c>
       <c r="H196">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
@@ -12662,7 +12662,7 @@
         <v>56</v>
       </c>
       <c r="H197">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
@@ -12685,7 +12685,7 @@
         <v>59</v>
       </c>
       <c r="H198">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
@@ -12731,7 +12731,7 @@
         <v>55</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
@@ -12754,7 +12754,7 @@
         <v>64</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
@@ -12777,7 +12777,7 @@
         <v>57</v>
       </c>
       <c r="H202">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
@@ -12800,7 +12800,7 @@
         <v>55</v>
       </c>
       <c r="H203">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
@@ -12823,7 +12823,7 @@
         <v>57</v>
       </c>
       <c r="H204">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
@@ -12846,7 +12846,7 @@
         <v>55</v>
       </c>
       <c r="H205">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
@@ -12892,7 +12892,7 @@
         <v>53</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
@@ -12938,7 +12938,7 @@
         <v>55</v>
       </c>
       <c r="H209">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.45">
@@ -12961,7 +12961,7 @@
         <v>56</v>
       </c>
       <c r="H210">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.45">
@@ -12984,7 +12984,7 @@
         <v>53</v>
       </c>
       <c r="H211">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.45">
@@ -13007,7 +13007,7 @@
         <v>58</v>
       </c>
       <c r="H212">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.45">
@@ -13030,7 +13030,7 @@
         <v>55</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.45">
@@ -13053,7 +13053,7 @@
         <v>56</v>
       </c>
       <c r="H214">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.45">
@@ -13076,7 +13076,7 @@
         <v>56</v>
       </c>
       <c r="H215">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.45">
@@ -13099,7 +13099,7 @@
         <v>58</v>
       </c>
       <c r="H216">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.45">
@@ -13122,7 +13122,7 @@
         <v>56</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.45">
@@ -13145,7 +13145,7 @@
         <v>65</v>
       </c>
       <c r="H218">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.45">
@@ -13168,7 +13168,7 @@
         <v>64</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.45">
@@ -13191,7 +13191,7 @@
         <v>64</v>
       </c>
       <c r="H220">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.45">
@@ -13214,7 +13214,7 @@
         <v>58</v>
       </c>
       <c r="H221">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.45">
@@ -13237,7 +13237,7 @@
         <v>55</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.45">
@@ -13260,7 +13260,7 @@
         <v>56</v>
       </c>
       <c r="H223">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.45">
@@ -13283,7 +13283,7 @@
         <v>56</v>
       </c>
       <c r="H224">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.45">
@@ -13306,7 +13306,7 @@
         <v>58</v>
       </c>
       <c r="H225">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.45">
@@ -13329,7 +13329,7 @@
         <v>53</v>
       </c>
       <c r="H226">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.45">
@@ -13352,7 +13352,7 @@
         <v>57</v>
       </c>
       <c r="H227">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.45">
@@ -13375,7 +13375,7 @@
         <v>55</v>
       </c>
       <c r="H228">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.45">
@@ -13398,7 +13398,7 @@
         <v>55</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.45">
@@ -13421,7 +13421,7 @@
         <v>55</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.45">
@@ -13444,7 +13444,7 @@
         <v>65</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.45">
@@ -13467,7 +13467,7 @@
         <v>59</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.45">
@@ -13490,7 +13490,7 @@
         <v>57</v>
       </c>
       <c r="H233">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.45">
@@ -13513,7 +13513,7 @@
         <v>57</v>
       </c>
       <c r="H234">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.45">
@@ -13536,7 +13536,7 @@
         <v>57</v>
       </c>
       <c r="H235">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.45">
@@ -13559,7 +13559,7 @@
         <v>53</v>
       </c>
       <c r="H236">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.45">
@@ -13582,7 +13582,7 @@
         <v>64</v>
       </c>
       <c r="H237">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.45">
@@ -13605,7 +13605,7 @@
         <v>57</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.45">
@@ -13628,7 +13628,7 @@
         <v>55</v>
       </c>
       <c r="H239">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.45">
@@ -13651,7 +13651,7 @@
         <v>55</v>
       </c>
       <c r="H240">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.45">
@@ -13674,7 +13674,7 @@
         <v>56</v>
       </c>
       <c r="H241">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.45">
@@ -13697,7 +13697,7 @@
         <v>56</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.45">
@@ -13720,7 +13720,7 @@
         <v>55</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.45">
@@ -13743,7 +13743,7 @@
         <v>59</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
@@ -13766,7 +13766,7 @@
         <v>54</v>
       </c>
       <c r="H245">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.45">
@@ -13789,7 +13789,7 @@
         <v>56</v>
       </c>
       <c r="H246">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.45">
@@ -13835,7 +13835,7 @@
         <v>53</v>
       </c>
       <c r="H248">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.45">
@@ -13858,7 +13858,7 @@
         <v>58</v>
       </c>
       <c r="H249">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.45">
@@ -13881,7 +13881,7 @@
         <v>55</v>
       </c>
       <c r="H250">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
@@ -13904,7 +13904,7 @@
         <v>56</v>
       </c>
       <c r="H251">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
@@ -13927,7 +13927,7 @@
         <v>58</v>
       </c>
       <c r="H252">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
@@ -13950,7 +13950,7 @@
         <v>57</v>
       </c>
       <c r="H253">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
@@ -13973,7 +13973,7 @@
         <v>56</v>
       </c>
       <c r="H254">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
@@ -13996,7 +13996,7 @@
         <v>58</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.45">
@@ -14019,7 +14019,7 @@
         <v>58</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.45">
@@ -14065,7 +14065,7 @@
         <v>59</v>
       </c>
       <c r="H258">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.45">
@@ -14088,7 +14088,7 @@
         <v>55</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.45">
@@ -14111,7 +14111,7 @@
         <v>55</v>
       </c>
       <c r="H260">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.45">
@@ -14134,7 +14134,7 @@
         <v>53</v>
       </c>
       <c r="H261">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.45">
@@ -14157,7 +14157,7 @@
         <v>55</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.45">
@@ -14180,7 +14180,7 @@
         <v>56</v>
       </c>
       <c r="H263">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.45">
@@ -14203,7 +14203,7 @@
         <v>55</v>
       </c>
       <c r="H264">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.45">
@@ -14226,7 +14226,7 @@
         <v>65</v>
       </c>
       <c r="H265">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.45">
@@ -14249,7 +14249,7 @@
         <v>55</v>
       </c>
       <c r="H266">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.45">
@@ -14272,7 +14272,7 @@
         <v>56</v>
       </c>
       <c r="H267">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.45">
@@ -14295,7 +14295,7 @@
         <v>57</v>
       </c>
       <c r="H268">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.45">
@@ -14318,7 +14318,7 @@
         <v>59</v>
       </c>
       <c r="H269">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.45">
@@ -14341,7 +14341,7 @@
         <v>55</v>
       </c>
       <c r="H270">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.45">
@@ -14364,7 +14364,7 @@
         <v>58</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.45">
@@ -14387,7 +14387,7 @@
         <v>56</v>
       </c>
       <c r="H272">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.45">
@@ -14410,7 +14410,7 @@
         <v>65</v>
       </c>
       <c r="H273">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.45">
@@ -14433,7 +14433,7 @@
         <v>56</v>
       </c>
       <c r="H274">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.45">
@@ -14456,7 +14456,7 @@
         <v>56</v>
       </c>
       <c r="H275">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.45">
@@ -14479,7 +14479,7 @@
         <v>65</v>
       </c>
       <c r="H276">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.45">
@@ -14502,7 +14502,7 @@
         <v>65</v>
       </c>
       <c r="H277">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.45">
@@ -14525,7 +14525,7 @@
         <v>53</v>
       </c>
       <c r="H278">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.45">
@@ -14548,7 +14548,7 @@
         <v>53</v>
       </c>
       <c r="H279">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.45">
@@ -14571,7 +14571,7 @@
         <v>55</v>
       </c>
       <c r="H280">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.45">
@@ -14594,7 +14594,7 @@
         <v>55</v>
       </c>
       <c r="H281">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.45">
@@ -14617,7 +14617,7 @@
         <v>56</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.45">
@@ -14640,7 +14640,7 @@
         <v>56</v>
       </c>
       <c r="H283">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.45">
@@ -14663,7 +14663,7 @@
         <v>55</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.45">
@@ -14686,7 +14686,7 @@
         <v>55</v>
       </c>
       <c r="H285">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.45">
@@ -14709,7 +14709,7 @@
         <v>55</v>
       </c>
       <c r="H286">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.45">
@@ -14732,7 +14732,7 @@
         <v>55</v>
       </c>
       <c r="H287">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.45">
@@ -14755,7 +14755,7 @@
         <v>58</v>
       </c>
       <c r="H288">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.45">
@@ -14778,7 +14778,7 @@
         <v>55</v>
       </c>
       <c r="H289">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.45">
@@ -14801,7 +14801,7 @@
         <v>55</v>
       </c>
       <c r="H290">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.45">
@@ -14824,7 +14824,7 @@
         <v>55</v>
       </c>
       <c r="H291">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.45">
@@ -14847,7 +14847,7 @@
         <v>57</v>
       </c>
       <c r="H292">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.45">
@@ -14870,7 +14870,7 @@
         <v>55</v>
       </c>
       <c r="H293">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.45">
@@ -14893,7 +14893,7 @@
         <v>53</v>
       </c>
       <c r="H294">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.45">
@@ -14916,7 +14916,7 @@
         <v>59</v>
       </c>
       <c r="H295">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.45">
@@ -14939,7 +14939,7 @@
         <v>57</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.45">
@@ -14962,7 +14962,7 @@
         <v>64</v>
       </c>
       <c r="H297">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.45">
@@ -14985,7 +14985,7 @@
         <v>55</v>
       </c>
       <c r="H298">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.45">
@@ -15008,7 +15008,7 @@
         <v>58</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.45">
@@ -15031,7 +15031,7 @@
         <v>54</v>
       </c>
       <c r="H300">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.45">
@@ -15077,7 +15077,7 @@
         <v>55</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.45">
@@ -15100,7 +15100,7 @@
         <v>54</v>
       </c>
       <c r="H303">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.45">
@@ -15123,7 +15123,7 @@
         <v>55</v>
       </c>
       <c r="H304">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.45">
@@ -15146,7 +15146,7 @@
         <v>65</v>
       </c>
       <c r="H305">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.45">
@@ -15169,7 +15169,7 @@
         <v>55</v>
       </c>
       <c r="H306">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.45">
@@ -15192,7 +15192,7 @@
         <v>57</v>
       </c>
       <c r="H307">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.45">
@@ -15215,7 +15215,7 @@
         <v>55</v>
       </c>
       <c r="H308">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.45">
@@ -15238,7 +15238,7 @@
         <v>59</v>
       </c>
       <c r="H309">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.45">
@@ -15261,7 +15261,7 @@
         <v>55</v>
       </c>
       <c r="H310">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.45">
@@ -15284,7 +15284,7 @@
         <v>56</v>
       </c>
       <c r="H311">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.45">
@@ -15307,7 +15307,7 @@
         <v>58</v>
       </c>
       <c r="H312">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.45">
@@ -15330,7 +15330,7 @@
         <v>54</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.45">
@@ -15353,7 +15353,7 @@
         <v>53</v>
       </c>
       <c r="H314">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.45">
@@ -15376,7 +15376,7 @@
         <v>53</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.45">
@@ -15399,7 +15399,7 @@
         <v>56</v>
       </c>
       <c r="H316">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.45">
@@ -15422,7 +15422,7 @@
         <v>58</v>
       </c>
       <c r="H317">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.45">
@@ -15445,7 +15445,7 @@
         <v>59</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.45">
@@ -15491,7 +15491,7 @@
         <v>56</v>
       </c>
       <c r="H320">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.45">
@@ -15514,7 +15514,7 @@
         <v>65</v>
       </c>
       <c r="H321">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.45">
@@ -15537,7 +15537,7 @@
         <v>53</v>
       </c>
       <c r="H322">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.45">
@@ -15560,7 +15560,7 @@
         <v>56</v>
       </c>
       <c r="H323">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.45">
@@ -15583,7 +15583,7 @@
         <v>53</v>
       </c>
       <c r="H324">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.45">
@@ -15606,7 +15606,7 @@
         <v>57</v>
       </c>
       <c r="H325">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.45">
@@ -15629,7 +15629,7 @@
         <v>57</v>
       </c>
       <c r="H326">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.45">
@@ -15652,7 +15652,7 @@
         <v>57</v>
       </c>
       <c r="H327">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.45">
@@ -15675,7 +15675,7 @@
         <v>55</v>
       </c>
       <c r="H328">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.45">
@@ -15698,7 +15698,7 @@
         <v>56</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.45">
@@ -15721,7 +15721,7 @@
         <v>58</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.45">
@@ -15744,7 +15744,7 @@
         <v>65</v>
       </c>
       <c r="H331">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.45">
@@ -15767,7 +15767,7 @@
         <v>57</v>
       </c>
       <c r="H332">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.45">
@@ -15790,7 +15790,7 @@
         <v>58</v>
       </c>
       <c r="H333">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.45">
@@ -15813,7 +15813,7 @@
         <v>56</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.45">
@@ -15836,7 +15836,7 @@
         <v>55</v>
       </c>
       <c r="H335">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.45">
@@ -15859,7 +15859,7 @@
         <v>57</v>
       </c>
       <c r="H336">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.45">
@@ -15882,7 +15882,7 @@
         <v>59</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.45">
@@ -15905,7 +15905,7 @@
         <v>65</v>
       </c>
       <c r="H338">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.45">
@@ -15928,7 +15928,7 @@
         <v>53</v>
       </c>
       <c r="H339">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.45">
@@ -15951,7 +15951,7 @@
         <v>55</v>
       </c>
       <c r="H340">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.45">
@@ -15974,7 +15974,7 @@
         <v>58</v>
       </c>
       <c r="H341">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.45">
@@ -15997,7 +15997,7 @@
         <v>55</v>
       </c>
       <c r="H342">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.45">
@@ -16020,7 +16020,7 @@
         <v>57</v>
       </c>
       <c r="H343">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.45">
@@ -16043,7 +16043,7 @@
         <v>55</v>
       </c>
       <c r="H344">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.45">
@@ -16066,7 +16066,7 @@
         <v>57</v>
       </c>
       <c r="H345">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.45">
@@ -16089,7 +16089,7 @@
         <v>57</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.45">
@@ -16112,7 +16112,7 @@
         <v>58</v>
       </c>
       <c r="H347">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.45">
@@ -16135,7 +16135,7 @@
         <v>65</v>
       </c>
       <c r="H348">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.45">
@@ -16158,7 +16158,7 @@
         <v>53</v>
       </c>
       <c r="H349">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.45">
@@ -16181,7 +16181,7 @@
         <v>56</v>
       </c>
       <c r="H350">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.45">
@@ -16204,7 +16204,7 @@
         <v>64</v>
       </c>
       <c r="H351">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.45">
@@ -16227,7 +16227,7 @@
         <v>56</v>
       </c>
       <c r="H352">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.45">
@@ -16250,7 +16250,7 @@
         <v>65</v>
       </c>
       <c r="H353">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.45">
@@ -16273,7 +16273,7 @@
         <v>55</v>
       </c>
       <c r="H354">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.45">
@@ -16296,7 +16296,7 @@
         <v>56</v>
       </c>
       <c r="H355">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.45">
@@ -16319,7 +16319,7 @@
         <v>55</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.45">
@@ -16342,7 +16342,7 @@
         <v>55</v>
       </c>
       <c r="H357">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.45">
@@ -16365,7 +16365,7 @@
         <v>57</v>
       </c>
       <c r="H358">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.45">
@@ -16388,7 +16388,7 @@
         <v>55</v>
       </c>
       <c r="H359">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.45">
@@ -16411,7 +16411,7 @@
         <v>53</v>
       </c>
       <c r="H360">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.45">
@@ -16434,7 +16434,7 @@
         <v>57</v>
       </c>
       <c r="H361">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.45">
@@ -16457,7 +16457,7 @@
         <v>55</v>
       </c>
       <c r="H362">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.45">
@@ -16480,7 +16480,7 @@
         <v>58</v>
       </c>
       <c r="H363">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.45">
@@ -16503,7 +16503,7 @@
         <v>56</v>
       </c>
       <c r="H364">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.45">
@@ -16526,7 +16526,7 @@
         <v>64</v>
       </c>
       <c r="H365">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.45">
@@ -16549,7 +16549,7 @@
         <v>53</v>
       </c>
       <c r="H366">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.45">
@@ -16572,7 +16572,7 @@
         <v>65</v>
       </c>
       <c r="H367">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.45">
@@ -16595,7 +16595,7 @@
         <v>58</v>
       </c>
       <c r="H368">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.45">
@@ -16618,7 +16618,7 @@
         <v>56</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.45">
@@ -16641,7 +16641,7 @@
         <v>56</v>
       </c>
       <c r="H370">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.45">
@@ -16664,7 +16664,7 @@
         <v>57</v>
       </c>
       <c r="H371">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.45">
@@ -16687,7 +16687,7 @@
         <v>54</v>
       </c>
       <c r="H372">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.45">
@@ -16733,7 +16733,7 @@
         <v>53</v>
       </c>
       <c r="H374">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.45">
@@ -16756,7 +16756,7 @@
         <v>55</v>
       </c>
       <c r="H375">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.45">
@@ -16779,7 +16779,7 @@
         <v>56</v>
       </c>
       <c r="H376">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.45">
@@ -16802,7 +16802,7 @@
         <v>55</v>
       </c>
       <c r="H377">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.45">
@@ -16825,7 +16825,7 @@
         <v>55</v>
       </c>
       <c r="H378">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.45">
@@ -16848,7 +16848,7 @@
         <v>56</v>
       </c>
       <c r="H379">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.45">
@@ -16871,7 +16871,7 @@
         <v>57</v>
       </c>
       <c r="H380">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.45">
@@ -16894,7 +16894,7 @@
         <v>55</v>
       </c>
       <c r="H381">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.45">
@@ -16917,7 +16917,7 @@
         <v>56</v>
       </c>
       <c r="H382">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.45">
@@ -16940,7 +16940,7 @@
         <v>65</v>
       </c>
       <c r="H383">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.45">
@@ -16963,7 +16963,7 @@
         <v>58</v>
       </c>
       <c r="H384">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.45">
@@ -16986,7 +16986,7 @@
         <v>55</v>
       </c>
       <c r="H385">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.45">
@@ -17009,7 +17009,7 @@
         <v>55</v>
       </c>
       <c r="H386">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.45">
@@ -17032,7 +17032,7 @@
         <v>55</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.45">
@@ -17055,7 +17055,7 @@
         <v>55</v>
       </c>
       <c r="H388">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.45">
@@ -17078,7 +17078,7 @@
         <v>56</v>
       </c>
       <c r="H389">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.45">
@@ -17101,7 +17101,7 @@
         <v>55</v>
       </c>
       <c r="H390">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.45">
@@ -17124,7 +17124,7 @@
         <v>55</v>
       </c>
       <c r="H391">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.45">
@@ -17147,7 +17147,7 @@
         <v>58</v>
       </c>
       <c r="H392">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.45">
@@ -17170,7 +17170,7 @@
         <v>59</v>
       </c>
       <c r="H393">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.45">
@@ -17193,7 +17193,7 @@
         <v>55</v>
       </c>
       <c r="H394">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.45">
@@ -17216,7 +17216,7 @@
         <v>65</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.45">
@@ -17239,7 +17239,7 @@
         <v>57</v>
       </c>
       <c r="H396">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.45">
@@ -17262,7 +17262,7 @@
         <v>55</v>
       </c>
       <c r="H397">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.45">
@@ -17285,7 +17285,7 @@
         <v>55</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.45">
@@ -17308,7 +17308,7 @@
         <v>55</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.45">
@@ -17331,7 +17331,7 @@
         <v>55</v>
       </c>
       <c r="H400">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.45">
@@ -17354,7 +17354,7 @@
         <v>65</v>
       </c>
       <c r="H401">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.45">
@@ -17377,7 +17377,7 @@
         <v>58</v>
       </c>
       <c r="H402">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.45">
@@ -17423,7 +17423,7 @@
         <v>55</v>
       </c>
       <c r="H404">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.45">
@@ -17446,7 +17446,7 @@
         <v>56</v>
       </c>
       <c r="H405">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.45">
@@ -17469,7 +17469,7 @@
         <v>55</v>
       </c>
       <c r="H406">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.45">
@@ -17515,7 +17515,7 @@
         <v>65</v>
       </c>
       <c r="H408">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.45">
@@ -17538,7 +17538,7 @@
         <v>58</v>
       </c>
       <c r="H409">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.45">
@@ -17561,7 +17561,7 @@
         <v>56</v>
       </c>
       <c r="H410">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.45">
@@ -17607,7 +17607,7 @@
         <v>55</v>
       </c>
       <c r="H412">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.45">
@@ -17630,7 +17630,7 @@
         <v>55</v>
       </c>
       <c r="H413">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.45">
@@ -17653,7 +17653,7 @@
         <v>57</v>
       </c>
       <c r="H414">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.45">
@@ -17676,7 +17676,7 @@
         <v>59</v>
       </c>
       <c r="H415">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.45">
@@ -17699,7 +17699,7 @@
         <v>55</v>
       </c>
       <c r="H416">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.45">
@@ -17722,7 +17722,7 @@
         <v>57</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.45">
@@ -17745,7 +17745,7 @@
         <v>56</v>
       </c>
       <c r="H418">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.45">
@@ -17768,7 +17768,7 @@
         <v>57</v>
       </c>
       <c r="H419">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.45">
@@ -17814,7 +17814,7 @@
         <v>55</v>
       </c>
       <c r="H421">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.45">
@@ -17837,7 +17837,7 @@
         <v>55</v>
       </c>
       <c r="H422">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.45">
@@ -17860,7 +17860,7 @@
         <v>55</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.45">
@@ -17883,7 +17883,7 @@
         <v>65</v>
       </c>
       <c r="H424">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.45">
@@ -17906,7 +17906,7 @@
         <v>53</v>
       </c>
       <c r="H425">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.45">
@@ -17929,7 +17929,7 @@
         <v>65</v>
       </c>
       <c r="H426">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.45">
@@ -17952,7 +17952,7 @@
         <v>58</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.45">
@@ -17975,7 +17975,7 @@
         <v>65</v>
       </c>
       <c r="H428">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.45">
@@ -17998,7 +17998,7 @@
         <v>53</v>
       </c>
       <c r="H429">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.45">
@@ -18044,7 +18044,7 @@
         <v>59</v>
       </c>
       <c r="H431">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.45">
@@ -18067,7 +18067,7 @@
         <v>59</v>
       </c>
       <c r="H432">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.45">
@@ -18090,7 +18090,7 @@
         <v>55</v>
       </c>
       <c r="H433">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.45">
@@ -18113,7 +18113,7 @@
         <v>55</v>
       </c>
       <c r="H434">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.45">
@@ -18136,7 +18136,7 @@
         <v>55</v>
       </c>
       <c r="H435">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.45">
@@ -18159,7 +18159,7 @@
         <v>57</v>
       </c>
       <c r="H436">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.45">
@@ -18182,7 +18182,7 @@
         <v>54</v>
       </c>
       <c r="H437">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.45">
@@ -18205,7 +18205,7 @@
         <v>65</v>
       </c>
       <c r="H438">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.45">
@@ -18228,7 +18228,7 @@
         <v>58</v>
       </c>
       <c r="H439">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.45">
@@ -18251,7 +18251,7 @@
         <v>55</v>
       </c>
       <c r="H440">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.45">
@@ -18274,7 +18274,7 @@
         <v>58</v>
       </c>
       <c r="H441">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.45">
@@ -18297,7 +18297,7 @@
         <v>55</v>
       </c>
       <c r="H442">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.45">
@@ -18320,7 +18320,7 @@
         <v>57</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.45">
@@ -18343,7 +18343,7 @@
         <v>55</v>
       </c>
       <c r="H444">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.45">
@@ -18366,7 +18366,7 @@
         <v>57</v>
       </c>
       <c r="H445">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.45">
@@ -18389,7 +18389,7 @@
         <v>59</v>
       </c>
       <c r="H446">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.45">
@@ -18412,7 +18412,7 @@
         <v>64</v>
       </c>
       <c r="H447">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.45">
@@ -18435,7 +18435,7 @@
         <v>55</v>
       </c>
       <c r="H448">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.45">
@@ -18458,7 +18458,7 @@
         <v>55</v>
       </c>
       <c r="H449">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.45">
@@ -18481,7 +18481,7 @@
         <v>56</v>
       </c>
       <c r="H450">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.45">
@@ -18504,7 +18504,7 @@
         <v>53</v>
       </c>
       <c r="H451">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.45">
@@ -18527,7 +18527,7 @@
         <v>55</v>
       </c>
       <c r="H452">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.45">
@@ -18550,7 +18550,7 @@
         <v>53</v>
       </c>
       <c r="H453">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.45">
@@ -18573,7 +18573,7 @@
         <v>56</v>
       </c>
       <c r="H454">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.45">
@@ -18596,7 +18596,7 @@
         <v>54</v>
       </c>
       <c r="H455">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.45">
@@ -18619,7 +18619,7 @@
         <v>57</v>
       </c>
       <c r="H456">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.45">
@@ -18642,7 +18642,7 @@
         <v>59</v>
       </c>
       <c r="H457">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.45">
@@ -18665,7 +18665,7 @@
         <v>53</v>
       </c>
       <c r="H458">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.45">
@@ -18688,7 +18688,7 @@
         <v>55</v>
       </c>
       <c r="H459">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.45">
@@ -18711,7 +18711,7 @@
         <v>58</v>
       </c>
       <c r="H460">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.45">
@@ -18757,7 +18757,7 @@
         <v>56</v>
       </c>
       <c r="H462">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.45">
@@ -18780,7 +18780,7 @@
         <v>55</v>
       </c>
       <c r="H463">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.45">
@@ -18803,7 +18803,7 @@
         <v>65</v>
       </c>
       <c r="H464">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.45">
@@ -18826,7 +18826,7 @@
         <v>54</v>
       </c>
       <c r="H465">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.45">
@@ -18849,7 +18849,7 @@
         <v>57</v>
       </c>
       <c r="H466">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.45">
@@ -18872,7 +18872,7 @@
         <v>57</v>
       </c>
       <c r="H467">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.45">
@@ -18895,7 +18895,7 @@
         <v>59</v>
       </c>
       <c r="H468">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.45">
@@ -18918,7 +18918,7 @@
         <v>53</v>
       </c>
       <c r="H469">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.45">
@@ -18941,7 +18941,7 @@
         <v>55</v>
       </c>
       <c r="H470">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.45">
@@ -18964,7 +18964,7 @@
         <v>53</v>
       </c>
       <c r="H471">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.45">
@@ -18987,7 +18987,7 @@
         <v>53</v>
       </c>
       <c r="H472">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.45">
@@ -19010,7 +19010,7 @@
         <v>56</v>
       </c>
       <c r="H473">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.45">
@@ -19033,7 +19033,7 @@
         <v>64</v>
       </c>
       <c r="H474">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.45">
@@ -19056,7 +19056,7 @@
         <v>59</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.45">
@@ -19079,7 +19079,7 @@
         <v>59</v>
       </c>
       <c r="H476">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.45">
@@ -19102,7 +19102,7 @@
         <v>53</v>
       </c>
       <c r="H477">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.45">
@@ -19125,7 +19125,7 @@
         <v>53</v>
       </c>
       <c r="H478">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.45">
@@ -19148,7 +19148,7 @@
         <v>59</v>
       </c>
       <c r="H479">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.45">
@@ -19171,7 +19171,7 @@
         <v>57</v>
       </c>
       <c r="H480">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.45">
@@ -19194,7 +19194,7 @@
         <v>53</v>
       </c>
       <c r="H481">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.45">
@@ -19217,7 +19217,7 @@
         <v>55</v>
       </c>
       <c r="H482">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.45">
@@ -19240,7 +19240,7 @@
         <v>55</v>
       </c>
       <c r="H483">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.45">
@@ -19263,7 +19263,7 @@
         <v>53</v>
       </c>
       <c r="H484">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.45">
@@ -19286,7 +19286,7 @@
         <v>58</v>
       </c>
       <c r="H485">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.45">
@@ -19309,7 +19309,7 @@
         <v>57</v>
       </c>
       <c r="H486">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.45">
@@ -19332,7 +19332,7 @@
         <v>57</v>
       </c>
       <c r="H487">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.45">
@@ -19355,7 +19355,7 @@
         <v>56</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.45">
@@ -19378,7 +19378,7 @@
         <v>59</v>
       </c>
       <c r="H489">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.45">
@@ -19401,7 +19401,7 @@
         <v>64</v>
       </c>
       <c r="H490">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.45">
@@ -19424,7 +19424,7 @@
         <v>56</v>
       </c>
       <c r="H491">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.45">
@@ -19447,7 +19447,7 @@
         <v>55</v>
       </c>
       <c r="H492">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.45">
@@ -19470,7 +19470,7 @@
         <v>53</v>
       </c>
       <c r="H493">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.45">
@@ -19493,7 +19493,7 @@
         <v>57</v>
       </c>
       <c r="H494">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.45">
@@ -19516,7 +19516,7 @@
         <v>55</v>
       </c>
       <c r="H495">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.45">
@@ -19539,7 +19539,7 @@
         <v>55</v>
       </c>
       <c r="H496">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.45">
@@ -19562,7 +19562,7 @@
         <v>55</v>
       </c>
       <c r="H497">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.45">
@@ -19585,7 +19585,7 @@
         <v>56</v>
       </c>
       <c r="H498">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.45">
@@ -19608,7 +19608,7 @@
         <v>58</v>
       </c>
       <c r="H499">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.45">
@@ -19631,7 +19631,7 @@
         <v>57</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.45">
@@ -19654,7 +19654,7 @@
         <v>53</v>
       </c>
       <c r="H501">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.45">
@@ -19677,7 +19677,7 @@
         <v>56</v>
       </c>
       <c r="H502">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.45">
@@ -19700,7 +19700,7 @@
         <v>64</v>
       </c>
       <c r="H503">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.45">
@@ -19723,7 +19723,7 @@
         <v>59</v>
       </c>
       <c r="H504">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.45">
@@ -19746,7 +19746,7 @@
         <v>55</v>
       </c>
       <c r="H505">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.45">
@@ -19769,7 +19769,7 @@
         <v>64</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.45">
@@ -19792,7 +19792,7 @@
         <v>54</v>
       </c>
       <c r="H507">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.45">
@@ -19815,7 +19815,7 @@
         <v>57</v>
       </c>
       <c r="H508">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.45">
@@ -19838,7 +19838,7 @@
         <v>57</v>
       </c>
       <c r="H509">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.45">
@@ -19861,7 +19861,7 @@
         <v>53</v>
       </c>
       <c r="H510">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.45">
@@ -19884,7 +19884,7 @@
         <v>55</v>
       </c>
       <c r="H511">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.45">
@@ -19907,7 +19907,7 @@
         <v>55</v>
       </c>
       <c r="H512">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.45">
@@ -19930,7 +19930,7 @@
         <v>57</v>
       </c>
       <c r="H513">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.45">
@@ -19976,7 +19976,7 @@
         <v>56</v>
       </c>
       <c r="H515">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.45">
@@ -19999,7 +19999,7 @@
         <v>55</v>
       </c>
       <c r="H516">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.45">
@@ -20022,7 +20022,7 @@
         <v>54</v>
       </c>
       <c r="H517">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.45">
@@ -20045,7 +20045,7 @@
         <v>55</v>
       </c>
       <c r="H518">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.45">
@@ -20068,7 +20068,7 @@
         <v>56</v>
       </c>
       <c r="H519">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.45">
@@ -20091,7 +20091,7 @@
         <v>58</v>
       </c>
       <c r="H520">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.45">
@@ -20114,7 +20114,7 @@
         <v>55</v>
       </c>
       <c r="H521">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.45">
@@ -20137,7 +20137,7 @@
         <v>55</v>
       </c>
       <c r="H522">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.45">
@@ -20160,7 +20160,7 @@
         <v>58</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.45">
@@ -20183,7 +20183,7 @@
         <v>59</v>
       </c>
       <c r="H524">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.45">
@@ -20206,7 +20206,7 @@
         <v>55</v>
       </c>
       <c r="H525">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.45">
@@ -20229,7 +20229,7 @@
         <v>65</v>
       </c>
       <c r="H526">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.45">
@@ -20252,7 +20252,7 @@
         <v>65</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.45">
@@ -20275,7 +20275,7 @@
         <v>56</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.45">
@@ -20298,7 +20298,7 @@
         <v>56</v>
       </c>
       <c r="H529">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.45">
@@ -20321,7 +20321,7 @@
         <v>59</v>
       </c>
       <c r="H530">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.45">
@@ -20344,7 +20344,7 @@
         <v>55</v>
       </c>
       <c r="H531">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.45">
@@ -20367,7 +20367,7 @@
         <v>56</v>
       </c>
       <c r="H532">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.45">
@@ -20390,7 +20390,7 @@
         <v>57</v>
       </c>
       <c r="H533">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.45">
@@ -20413,7 +20413,7 @@
         <v>64</v>
       </c>
       <c r="H534">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.45">
@@ -20436,7 +20436,7 @@
         <v>53</v>
       </c>
       <c r="H535">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.45">
@@ -20459,7 +20459,7 @@
         <v>57</v>
       </c>
       <c r="H536">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.45">
@@ -20482,7 +20482,7 @@
         <v>57</v>
       </c>
       <c r="H537">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.45">
@@ -20505,7 +20505,7 @@
         <v>64</v>
       </c>
       <c r="H538">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.45">
@@ -20528,7 +20528,7 @@
         <v>55</v>
       </c>
       <c r="H539">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.45">
@@ -20551,7 +20551,7 @@
         <v>65</v>
       </c>
       <c r="H540">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.45">
@@ -20574,7 +20574,7 @@
         <v>53</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.45">
@@ -20597,7 +20597,7 @@
         <v>58</v>
       </c>
       <c r="H542">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.45">
@@ -20620,7 +20620,7 @@
         <v>55</v>
       </c>
       <c r="H543">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.45">
@@ -20643,7 +20643,7 @@
         <v>59</v>
       </c>
       <c r="H544">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.45">
@@ -20666,7 +20666,7 @@
         <v>65</v>
       </c>
       <c r="H545">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.45">
@@ -20689,7 +20689,7 @@
         <v>53</v>
       </c>
       <c r="H546">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.45">
@@ -20712,7 +20712,7 @@
         <v>56</v>
       </c>
       <c r="H547">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.45">
@@ -20735,7 +20735,7 @@
         <v>53</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.45">
@@ -20758,7 +20758,7 @@
         <v>56</v>
       </c>
       <c r="H549">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.45">
@@ -20781,7 +20781,7 @@
         <v>64</v>
       </c>
       <c r="H550">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.45">
@@ -20804,7 +20804,7 @@
         <v>57</v>
       </c>
       <c r="H551">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.45">
@@ -20827,7 +20827,7 @@
         <v>57</v>
       </c>
       <c r="H552">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.45">
@@ -20850,7 +20850,7 @@
         <v>57</v>
       </c>
       <c r="H553">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.45">
@@ -20873,7 +20873,7 @@
         <v>55</v>
       </c>
       <c r="H554">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.45">
@@ -20896,7 +20896,7 @@
         <v>58</v>
       </c>
       <c r="H555">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.45">
@@ -20919,7 +20919,7 @@
         <v>54</v>
       </c>
       <c r="H556">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.45">
@@ -20942,7 +20942,7 @@
         <v>58</v>
       </c>
       <c r="H557">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.45">
@@ -20965,7 +20965,7 @@
         <v>58</v>
       </c>
       <c r="H558">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.45">
@@ -20988,7 +20988,7 @@
         <v>65</v>
       </c>
       <c r="H559">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.45">
@@ -21011,7 +21011,7 @@
         <v>65</v>
       </c>
       <c r="H560">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.45">
@@ -21057,7 +21057,7 @@
         <v>55</v>
       </c>
       <c r="H562">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.45">
@@ -21080,7 +21080,7 @@
         <v>56</v>
       </c>
       <c r="H563">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.45">
@@ -21103,7 +21103,7 @@
         <v>57</v>
       </c>
       <c r="H564">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.45">
@@ -21126,7 +21126,7 @@
         <v>56</v>
       </c>
       <c r="H565">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.45">
@@ -21149,7 +21149,7 @@
         <v>58</v>
       </c>
       <c r="H566">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.45">
@@ -21172,7 +21172,7 @@
         <v>57</v>
       </c>
       <c r="H567">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.45">
@@ -21195,7 +21195,7 @@
         <v>53</v>
       </c>
       <c r="H568">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.45">
@@ -21218,7 +21218,7 @@
         <v>65</v>
       </c>
       <c r="H569">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.45">
@@ -21264,7 +21264,7 @@
         <v>55</v>
       </c>
       <c r="H571">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.45">
@@ -21287,7 +21287,7 @@
         <v>56</v>
       </c>
       <c r="H572">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.45">
@@ -21310,7 +21310,7 @@
         <v>65</v>
       </c>
       <c r="H573">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.45">
@@ -21333,7 +21333,7 @@
         <v>55</v>
       </c>
       <c r="H574">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.45">
@@ -21379,7 +21379,7 @@
         <v>58</v>
       </c>
       <c r="H576">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.45">
@@ -21402,7 +21402,7 @@
         <v>55</v>
       </c>
       <c r="H577">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.45">
@@ -21425,7 +21425,7 @@
         <v>53</v>
       </c>
       <c r="H578">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.45">
@@ -21448,7 +21448,7 @@
         <v>55</v>
       </c>
       <c r="H579">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.45">
@@ -21471,7 +21471,7 @@
         <v>59</v>
       </c>
       <c r="H580">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.45">
@@ -21494,7 +21494,7 @@
         <v>53</v>
       </c>
       <c r="H581">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.45">
@@ -21517,7 +21517,7 @@
         <v>55</v>
       </c>
       <c r="H582">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.45">
@@ -21540,7 +21540,7 @@
         <v>55</v>
       </c>
       <c r="H583">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.45">
@@ -21563,7 +21563,7 @@
         <v>55</v>
       </c>
       <c r="H584">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.45">
@@ -21609,7 +21609,7 @@
         <v>56</v>
       </c>
       <c r="H586">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.45">
@@ -21632,7 +21632,7 @@
         <v>57</v>
       </c>
       <c r="H587">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.45">
@@ -21655,7 +21655,7 @@
         <v>55</v>
       </c>
       <c r="H588">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.45">
@@ -21678,7 +21678,7 @@
         <v>55</v>
       </c>
       <c r="H589">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.45">
@@ -21701,7 +21701,7 @@
         <v>58</v>
       </c>
       <c r="H590">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.45">
@@ -21724,7 +21724,7 @@
         <v>55</v>
       </c>
       <c r="H591">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.45">
@@ -21747,7 +21747,7 @@
         <v>64</v>
       </c>
       <c r="H592">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.45">
@@ -21770,7 +21770,7 @@
         <v>56</v>
       </c>
       <c r="H593">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.45">
@@ -21793,7 +21793,7 @@
         <v>53</v>
       </c>
       <c r="H594">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.45">
@@ -21816,7 +21816,7 @@
         <v>65</v>
       </c>
       <c r="H595">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.45">
@@ -21839,7 +21839,7 @@
         <v>56</v>
       </c>
       <c r="H596">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.45">
@@ -21862,7 +21862,7 @@
         <v>53</v>
       </c>
       <c r="H597">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.45">
@@ -21885,7 +21885,7 @@
         <v>55</v>
       </c>
       <c r="H598">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.45">
@@ -21908,7 +21908,7 @@
         <v>56</v>
       </c>
       <c r="H599">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.45">
@@ -21931,7 +21931,7 @@
         <v>55</v>
       </c>
       <c r="H600">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.45">
@@ -21954,7 +21954,7 @@
         <v>56</v>
       </c>
       <c r="H601">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.45">
@@ -21977,7 +21977,7 @@
         <v>59</v>
       </c>
       <c r="H602">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.45">
@@ -22000,7 +22000,7 @@
         <v>59</v>
       </c>
       <c r="H603">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.45">
@@ -22046,7 +22046,7 @@
         <v>64</v>
       </c>
       <c r="H605">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.45">
@@ -22069,7 +22069,7 @@
         <v>53</v>
       </c>
       <c r="H606">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.45">
@@ -22092,7 +22092,7 @@
         <v>56</v>
       </c>
       <c r="H607">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.45">
@@ -22115,7 +22115,7 @@
         <v>56</v>
       </c>
       <c r="H608">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.45">
@@ -22138,7 +22138,7 @@
         <v>55</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.45">
@@ -22161,7 +22161,7 @@
         <v>56</v>
       </c>
       <c r="H610">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.45">
@@ -22184,7 +22184,7 @@
         <v>55</v>
       </c>
       <c r="H611">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.45">
@@ -22207,7 +22207,7 @@
         <v>55</v>
       </c>
       <c r="H612">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.45">
@@ -22230,7 +22230,7 @@
         <v>53</v>
       </c>
       <c r="H613">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.45">
@@ -22253,7 +22253,7 @@
         <v>64</v>
       </c>
       <c r="H614">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.45">
@@ -22276,7 +22276,7 @@
         <v>55</v>
       </c>
       <c r="H615">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.45">
@@ -22299,7 +22299,7 @@
         <v>56</v>
       </c>
       <c r="H616">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.45">
@@ -22322,7 +22322,7 @@
         <v>55</v>
       </c>
       <c r="H617">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.45">
@@ -22345,7 +22345,7 @@
         <v>55</v>
       </c>
       <c r="H618">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.45">
@@ -22391,7 +22391,7 @@
         <v>55</v>
       </c>
       <c r="H620">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.45">
@@ -22414,7 +22414,7 @@
         <v>56</v>
       </c>
       <c r="H621">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.45">
@@ -22437,7 +22437,7 @@
         <v>53</v>
       </c>
       <c r="H622">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.45">
@@ -22460,7 +22460,7 @@
         <v>56</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.45">
@@ -22483,7 +22483,7 @@
         <v>53</v>
       </c>
       <c r="H624">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.45">
@@ -22506,7 +22506,7 @@
         <v>59</v>
       </c>
       <c r="H625">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.45">
@@ -22529,7 +22529,7 @@
         <v>53</v>
       </c>
       <c r="H626">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.45">
@@ -22552,7 +22552,7 @@
         <v>55</v>
       </c>
       <c r="H627">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.45">
@@ -22575,7 +22575,7 @@
         <v>57</v>
       </c>
       <c r="H628">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.45">
@@ -22598,7 +22598,7 @@
         <v>56</v>
       </c>
       <c r="H629">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.45">
@@ -22621,7 +22621,7 @@
         <v>64</v>
       </c>
       <c r="H630">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.45">
@@ -22644,7 +22644,7 @@
         <v>55</v>
       </c>
       <c r="H631">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.45">
@@ -22667,7 +22667,7 @@
         <v>55</v>
       </c>
       <c r="H632">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.45">
@@ -22690,7 +22690,7 @@
         <v>53</v>
       </c>
       <c r="H633">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.45">
@@ -22713,7 +22713,7 @@
         <v>56</v>
       </c>
       <c r="H634">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.45">
@@ -22736,7 +22736,7 @@
         <v>56</v>
       </c>
       <c r="H635">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.45">
@@ -22759,7 +22759,7 @@
         <v>58</v>
       </c>
       <c r="H636">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.45">
@@ -22782,7 +22782,7 @@
         <v>58</v>
       </c>
       <c r="H637">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.45">
@@ -22805,7 +22805,7 @@
         <v>54</v>
       </c>
       <c r="H638">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.45">
@@ -22828,7 +22828,7 @@
         <v>55</v>
       </c>
       <c r="H639">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.45">
@@ -22851,7 +22851,7 @@
         <v>56</v>
       </c>
       <c r="H640">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.45">
@@ -22874,7 +22874,7 @@
         <v>55</v>
       </c>
       <c r="H641">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.45">
@@ -22897,7 +22897,7 @@
         <v>53</v>
       </c>
       <c r="H642">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.45">
@@ -22920,7 +22920,7 @@
         <v>55</v>
       </c>
       <c r="H643">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.45">
@@ -22943,7 +22943,7 @@
         <v>55</v>
       </c>
       <c r="H644">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.45">
@@ -22966,7 +22966,7 @@
         <v>55</v>
       </c>
       <c r="H645">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.45">
@@ -23035,7 +23035,7 @@
         <v>65</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.45">
@@ -23081,7 +23081,7 @@
         <v>55</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.45">
@@ -23104,7 +23104,7 @@
         <v>55</v>
       </c>
       <c r="H651">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.45">
@@ -23127,7 +23127,7 @@
         <v>55</v>
       </c>
       <c r="H652">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.45">
@@ -23150,7 +23150,7 @@
         <v>53</v>
       </c>
       <c r="H653">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.45">
@@ -23173,7 +23173,7 @@
         <v>55</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.45">
@@ -23196,7 +23196,7 @@
         <v>55</v>
       </c>
       <c r="H655">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.45">
@@ -23219,7 +23219,7 @@
         <v>56</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.45">
@@ -23242,7 +23242,7 @@
         <v>53</v>
       </c>
       <c r="H657">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.45">
@@ -23265,7 +23265,7 @@
         <v>59</v>
       </c>
       <c r="H658">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.45">
@@ -23288,7 +23288,7 @@
         <v>59</v>
       </c>
       <c r="H659">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.45">
@@ -23311,7 +23311,7 @@
         <v>58</v>
       </c>
       <c r="H660">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.45">
@@ -23334,7 +23334,7 @@
         <v>55</v>
       </c>
       <c r="H661">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.45">
@@ -23357,7 +23357,7 @@
         <v>64</v>
       </c>
       <c r="H662">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.45">
@@ -23380,7 +23380,7 @@
         <v>56</v>
       </c>
       <c r="H663">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.45">
@@ -23403,7 +23403,7 @@
         <v>56</v>
       </c>
       <c r="H664">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.45">
@@ -23426,7 +23426,7 @@
         <v>56</v>
       </c>
       <c r="H665">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.45">
@@ -23449,7 +23449,7 @@
         <v>58</v>
       </c>
       <c r="H666">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.45">
@@ -23472,7 +23472,7 @@
         <v>55</v>
       </c>
       <c r="H667">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.45">
@@ -23495,7 +23495,7 @@
         <v>65</v>
       </c>
       <c r="H668">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.45">
@@ -23518,7 +23518,7 @@
         <v>56</v>
       </c>
       <c r="H669">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.45">
@@ -23541,7 +23541,7 @@
         <v>59</v>
       </c>
       <c r="H670">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.45">
@@ -23564,7 +23564,7 @@
         <v>58</v>
       </c>
       <c r="H671">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.45">
@@ -23587,7 +23587,7 @@
         <v>65</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.45">
@@ -23610,7 +23610,7 @@
         <v>56</v>
       </c>
       <c r="H673">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.45">
@@ -23633,7 +23633,7 @@
         <v>56</v>
       </c>
       <c r="H674">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.45">
@@ -23656,7 +23656,7 @@
         <v>55</v>
       </c>
       <c r="H675">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.45">
@@ -23679,7 +23679,7 @@
         <v>54</v>
       </c>
       <c r="H676">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.45">
@@ -23702,7 +23702,7 @@
         <v>53</v>
       </c>
       <c r="H677">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.45">
@@ -23725,7 +23725,7 @@
         <v>56</v>
       </c>
       <c r="H678">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.45">
@@ -23748,7 +23748,7 @@
         <v>59</v>
       </c>
       <c r="H679">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.45">
@@ -23771,7 +23771,7 @@
         <v>55</v>
       </c>
       <c r="H680">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.45">
@@ -23794,7 +23794,7 @@
         <v>55</v>
       </c>
       <c r="H681">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.45">
@@ -23817,7 +23817,7 @@
         <v>65</v>
       </c>
       <c r="H682">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.45">
@@ -23840,7 +23840,7 @@
         <v>56</v>
       </c>
       <c r="H683">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.45">
@@ -23863,7 +23863,7 @@
         <v>56</v>
       </c>
       <c r="H684">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.45">
@@ -23886,7 +23886,7 @@
         <v>53</v>
       </c>
       <c r="H685">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.45">
@@ -23909,7 +23909,7 @@
         <v>59</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -24144,10 +24144,10 @@
         <v>5.15</v>
       </c>
       <c r="F3" s="28">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -24171,49 +24171,49 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3">
         <v>6</v>
       </c>
       <c r="U3">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="V3">
-        <v>4.49</v>
+        <v>4.29</v>
       </c>
       <c r="W3">
-        <v>5.18</v>
+        <v>5.43</v>
       </c>
       <c r="X3">
-        <v>5.81</v>
+        <v>5.86</v>
       </c>
       <c r="Y3">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="Z3">
-        <v>3.4</v>
+        <v>3.07</v>
       </c>
       <c r="AA3">
-        <v>1.0900000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="AB3">
-        <v>0.69</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="AD3">
-        <v>3.09</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.45">
@@ -24230,10 +24230,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="28">
-        <v>5.1100000000000003</v>
+        <v>5.13</v>
       </c>
       <c r="F4" s="28">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -24242,10 +24242,10 @@
         <v>5</v>
       </c>
       <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -24260,49 +24260,49 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
         <v>8</v>
       </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
       <c r="U4">
-        <v>3.08</v>
+        <v>2.58</v>
       </c>
       <c r="V4">
-        <v>4.0199999999999996</v>
+        <v>4.54</v>
       </c>
       <c r="W4">
-        <v>5.47</v>
+        <v>5.04</v>
       </c>
       <c r="X4">
-        <v>6.11</v>
+        <v>5.49</v>
       </c>
       <c r="Y4">
-        <v>6.64</v>
+        <v>8.5</v>
       </c>
       <c r="Z4">
-        <v>3.08</v>
+        <v>2.58</v>
       </c>
       <c r="AA4">
-        <v>0.94</v>
+        <v>1.96</v>
       </c>
       <c r="AB4">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC4">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="AD4">
-        <v>0.53</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.45">
@@ -24313,16 +24313,16 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="28">
-        <v>5.17</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F5" s="28">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -24334,16 +24334,16 @@
         <v>2</v>
       </c>
       <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -24358,40 +24358,40 @@
         <v>3</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="V5">
-        <v>4.1500000000000004</v>
+        <v>4.34</v>
       </c>
       <c r="W5">
-        <v>5.43</v>
+        <v>4.79</v>
       </c>
       <c r="X5">
-        <v>5.95</v>
+        <v>5.82</v>
       </c>
       <c r="Y5">
-        <v>7.72</v>
+        <v>8.5</v>
       </c>
       <c r="Z5">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="AA5">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB5">
-        <v>1.28</v>
+        <v>0.46</v>
       </c>
       <c r="AC5">
-        <v>0.52</v>
+        <v>1.03</v>
       </c>
       <c r="AD5">
-        <v>1.77</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.45">
@@ -24408,19 +24408,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="28">
-        <v>5.13</v>
+        <v>5.15</v>
       </c>
       <c r="F6" s="28">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -24429,7 +24429,7 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -24441,46 +24441,46 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6">
         <v>3</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6">
         <v>6</v>
       </c>
       <c r="U6">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="V6">
-        <v>4.6900000000000004</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="W6">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="X6">
-        <v>5.43</v>
+        <v>5.75</v>
       </c>
       <c r="Y6">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AA6">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AB6">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="AC6">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="AD6">
-        <v>3.47</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.45">
@@ -24497,7 +24497,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="28">
-        <v>5.16</v>
+        <v>5.09</v>
       </c>
       <c r="F7" s="28">
         <v>1.28</v>
@@ -24506,10 +24506,10 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -24533,43 +24533,43 @@
         <v>16</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>7</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="V7">
-        <v>4.68</v>
+        <v>4.46</v>
       </c>
       <c r="W7">
-        <v>5.17</v>
+        <v>4.91</v>
       </c>
       <c r="X7">
-        <v>5.65</v>
+        <v>5.76</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="Z7">
-        <v>2.31</v>
+        <v>2.98</v>
       </c>
       <c r="AA7">
-        <v>2.37</v>
+        <v>1.48</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AC7">
-        <v>0.48</v>
+        <v>0.85</v>
       </c>
       <c r="AD7">
-        <v>2.35</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.45">
@@ -24589,7 +24589,7 @@
         <v>5.14</v>
       </c>
       <c r="F8" s="28">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -24598,7 +24598,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -24610,7 +24610,7 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -24619,7 +24619,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -24628,37 +24628,37 @@
         <v>7</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>2.74</v>
+        <v>2.31</v>
       </c>
       <c r="V8">
-        <v>4.5599999999999996</v>
+        <v>4.72</v>
       </c>
       <c r="W8">
-        <v>5.29</v>
+        <v>5.21</v>
       </c>
       <c r="X8">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="Y8">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Z8">
-        <v>2.74</v>
+        <v>2.31</v>
       </c>
       <c r="AA8">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="AB8">
-        <v>0.73</v>
+        <v>0.48</v>
       </c>
       <c r="AC8">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.45">
@@ -24675,10 +24675,10 @@
         <v>6</v>
       </c>
       <c r="E9" s="28">
-        <v>5.16</v>
+        <v>5.09</v>
       </c>
       <c r="F9" s="28">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -24687,7 +24687,7 @@
         <v>5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -24696,58 +24696,58 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S9">
         <v>7</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>2.94</v>
       </c>
       <c r="V9">
-        <v>4.55</v>
+        <v>4.34</v>
       </c>
       <c r="W9">
-        <v>5.21</v>
+        <v>4.91</v>
       </c>
       <c r="X9">
-        <v>5.79</v>
+        <v>5.81</v>
       </c>
       <c r="Y9">
-        <v>7.7</v>
+        <v>8.01</v>
       </c>
       <c r="Z9">
-        <v>1.9</v>
+        <v>2.94</v>
       </c>
       <c r="AA9">
-        <v>2.65</v>
+        <v>1.4</v>
       </c>
       <c r="AB9">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AC9">
-        <v>0.57999999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="AD9">
-        <v>1.91</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.45">
@@ -24764,10 +24764,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="28">
-        <v>5.13</v>
+        <v>5.18</v>
       </c>
       <c r="F10" s="28">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -24776,7 +24776,7 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -24785,7 +24785,7 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>4</v>
@@ -24797,46 +24797,46 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="U10">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="V10">
-        <v>4.46</v>
+        <v>4.42</v>
       </c>
       <c r="W10">
-        <v>4.93</v>
+        <v>4.8</v>
       </c>
       <c r="X10">
-        <v>5.44</v>
+        <v>6.1</v>
       </c>
       <c r="Y10">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Z10">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="AA10">
-        <v>1.1100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AB10">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="AC10">
-        <v>0.51</v>
+        <v>1.3</v>
       </c>
       <c r="AD10">
-        <v>3.36</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
@@ -24856,16 +24856,16 @@
         <v>5.13</v>
       </c>
       <c r="F11" s="28">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -24874,10 +24874,10 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -24886,46 +24886,46 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q11">
         <v>3</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S11">
         <v>7</v>
       </c>
       <c r="U11">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="V11">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="W11">
-        <v>4.84</v>
+        <v>5.08</v>
       </c>
       <c r="X11">
-        <v>5.8</v>
+        <v>5.68</v>
       </c>
       <c r="Y11">
         <v>8.4</v>
       </c>
       <c r="Z11">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="AA11">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="AB11">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="AC11">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="AD11">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.45">
@@ -24936,16 +24936,16 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="28">
         <v>5.12</v>
       </c>
       <c r="F12" s="28">
-        <v>1.1499999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -24987,34 +24987,34 @@
         <v>7</v>
       </c>
       <c r="U12">
-        <v>3.49</v>
+        <v>2.63</v>
       </c>
       <c r="V12">
-        <v>4.42</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="W12">
-        <v>5.21</v>
+        <v>5.13</v>
       </c>
       <c r="X12">
-        <v>5.48</v>
+        <v>5.84</v>
       </c>
       <c r="Y12">
-        <v>8.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="Z12">
-        <v>3.49</v>
+        <v>2.63</v>
       </c>
       <c r="AA12">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="AB12">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="AC12">
-        <v>0.27</v>
+        <v>0.71</v>
       </c>
       <c r="AD12">
-        <v>3.22</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.45">
@@ -25031,16 +25031,16 @@
         <v>6</v>
       </c>
       <c r="E13" s="28">
-        <v>5.1100000000000003</v>
+        <v>5.16</v>
       </c>
       <c r="F13" s="28">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -25049,10 +25049,10 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -25061,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -25070,40 +25070,40 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>3.14</v>
+        <v>2.74</v>
       </c>
       <c r="V13">
-        <v>4.0199999999999996</v>
+        <v>4.53</v>
       </c>
       <c r="W13">
-        <v>5.53</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X13">
-        <v>6.11</v>
+        <v>5.77</v>
       </c>
       <c r="Y13">
-        <v>6.59</v>
+        <v>8.9</v>
       </c>
       <c r="Z13">
-        <v>3.14</v>
+        <v>2.74</v>
       </c>
       <c r="AA13">
-        <v>0.88</v>
+        <v>1.79</v>
       </c>
       <c r="AB13">
-        <v>1.52</v>
+        <v>0.37</v>
       </c>
       <c r="AC13">
-        <v>0.57999999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="AD13">
-        <v>0.48</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.45">
@@ -25120,10 +25120,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="28">
-        <v>5.14</v>
+        <v>5.13</v>
       </c>
       <c r="F14" s="28">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -25156,43 +25156,43 @@
         <v>16</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>7</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U14">
-        <v>2.56</v>
+        <v>2.89</v>
       </c>
       <c r="V14">
-        <v>4.42</v>
+        <v>4.49</v>
       </c>
       <c r="W14">
-        <v>4.8499999999999996</v>
+        <v>5.09</v>
       </c>
       <c r="X14">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Z14">
-        <v>2.56</v>
+        <v>2.89</v>
       </c>
       <c r="AA14">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="AB14">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="AC14">
-        <v>1.04</v>
+        <v>0.73</v>
       </c>
       <c r="AD14">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
@@ -25209,10 +25209,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="28">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="F15" s="28">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -25230,7 +25230,7 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -25239,49 +25239,49 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
         <v>8</v>
       </c>
-      <c r="S15">
-        <v>6</v>
-      </c>
       <c r="U15">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="V15">
-        <v>4.55</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="W15">
-        <v>5.04</v>
+        <v>5.21</v>
       </c>
       <c r="X15">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="Y15">
         <v>9</v>
       </c>
       <c r="Z15">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="AA15">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AB15">
-        <v>0.49</v>
+        <v>0.81</v>
       </c>
       <c r="AC15">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AD15">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.45">
@@ -25301,7 +25301,7 @@
         <v>5.15</v>
       </c>
       <c r="F16" s="28">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -25310,7 +25310,7 @@
         <v>6</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>3</v>
@@ -25319,7 +25319,7 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -25334,43 +25334,43 @@
         <v>16</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>7</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>3.6</v>
+        <v>2.83</v>
       </c>
       <c r="V16">
-        <v>4.43</v>
+        <v>4.34</v>
       </c>
       <c r="W16">
-        <v>4.71</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="X16">
-        <v>6.05</v>
+        <v>6.13</v>
       </c>
       <c r="Y16">
-        <v>8.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Z16">
-        <v>3.6</v>
+        <v>2.83</v>
       </c>
       <c r="AA16">
-        <v>0.83</v>
+        <v>1.51</v>
       </c>
       <c r="AB16">
-        <v>0.28000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="AC16">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AD16">
-        <v>2.85</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.45">
@@ -25387,22 +25387,22 @@
         <v>6</v>
       </c>
       <c r="E17" s="28">
-        <v>5.15</v>
+        <v>5.14</v>
       </c>
       <c r="F17" s="28">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -25411,7 +25411,7 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -25420,46 +25420,46 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>7</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="V17">
-        <v>4.34</v>
+        <v>4.51</v>
       </c>
       <c r="W17">
-        <v>4.8499999999999996</v>
+        <v>5.07</v>
       </c>
       <c r="X17">
-        <v>5.97</v>
+        <v>5.82</v>
       </c>
       <c r="Y17">
-        <v>7.07</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Z17">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="AA17">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="AB17">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC17">
-        <v>1.1100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AD17">
-        <v>1.1100000000000001</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.45">
@@ -25470,25 +25470,25 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="28">
-        <v>5.14</v>
+        <v>5.17</v>
       </c>
       <c r="F18" s="28">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -25497,7 +25497,7 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18">
         <v>4</v>
@@ -25509,46 +25509,46 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q18">
         <v>3</v>
       </c>
       <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>3.14</v>
+      </c>
+      <c r="V18">
+        <v>4.21</v>
+      </c>
+      <c r="W18">
+        <v>5.52</v>
+      </c>
+      <c r="X18">
+        <v>5.84</v>
+      </c>
+      <c r="Y18">
         <v>8</v>
       </c>
-      <c r="S18">
-        <v>6</v>
-      </c>
-      <c r="U18">
-        <v>3.55</v>
-      </c>
-      <c r="V18">
-        <v>4.46</v>
-      </c>
-      <c r="W18">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="X18">
-        <v>5.72</v>
-      </c>
-      <c r="Y18">
-        <v>8.5</v>
-      </c>
       <c r="Z18">
-        <v>3.55</v>
+        <v>3.14</v>
       </c>
       <c r="AA18">
-        <v>0.91</v>
+        <v>1.06</v>
       </c>
       <c r="AB18">
-        <v>0.39</v>
+        <v>1.31</v>
       </c>
       <c r="AC18">
-        <v>0.87</v>
+        <v>0.32</v>
       </c>
       <c r="AD18">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.45">
@@ -25559,16 +25559,16 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="28">
-        <v>5.13</v>
+        <v>5.17</v>
       </c>
       <c r="F19" s="28">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -25577,7 +25577,7 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -25586,7 +25586,7 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>4</v>
@@ -25595,10 +25595,10 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -25607,37 +25607,37 @@
         <v>8</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>3.23</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>4.47</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="W19">
-        <v>5.18</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="X19">
-        <v>5.6</v>
+        <v>5.81</v>
       </c>
       <c r="Y19">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Z19">
-        <v>3.23</v>
+        <v>1.9</v>
       </c>
       <c r="AA19">
-        <v>1.24</v>
+        <v>2.82</v>
       </c>
       <c r="AB19">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="AC19">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="AD19">
-        <v>2.7</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.45">
@@ -25648,22 +25648,22 @@
         <v>35</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" s="28">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="F20" s="28">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -25687,46 +25687,46 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>2.89</v>
+        <v>3.31</v>
       </c>
       <c r="V20">
-        <v>4.71</v>
+        <v>4.43</v>
       </c>
       <c r="W20">
-        <v>4.9400000000000004</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="X20">
-        <v>5.49</v>
+        <v>5.72</v>
       </c>
       <c r="Y20">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="Z20">
-        <v>2.89</v>
+        <v>3.31</v>
       </c>
       <c r="AA20">
-        <v>1.82</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="AC20">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="AD20">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.45">
@@ -25743,19 +25743,19 @@
         <v>6</v>
       </c>
       <c r="E21" s="28">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="F21" s="28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -25782,40 +25782,40 @@
         <v>3</v>
       </c>
       <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
         <v>8</v>
       </c>
-      <c r="S21">
-        <v>7</v>
-      </c>
       <c r="U21">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="V21">
-        <v>4.32</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="W21">
-        <v>4.91</v>
+        <v>5.28</v>
       </c>
       <c r="X21">
-        <v>5.89</v>
+        <v>5.71</v>
       </c>
       <c r="Y21">
         <v>8.5</v>
       </c>
       <c r="Z21">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="AA21">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AB21">
-        <v>0.59</v>
+        <v>0.97</v>
       </c>
       <c r="AC21">
-        <v>0.98</v>
+        <v>0.43</v>
       </c>
       <c r="AD21">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.45">
@@ -25826,22 +25826,22 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="28">
         <v>5.15</v>
       </c>
       <c r="F22" s="28">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -25853,10 +25853,10 @@
         <v>4</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -25865,46 +25865,46 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q22">
         <v>3</v>
       </c>
       <c r="R22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S22">
         <v>8</v>
       </c>
       <c r="U22">
-        <v>2.63</v>
+        <v>3.69</v>
       </c>
       <c r="V22">
-        <v>4.0999999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="W22">
-        <v>5.37</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="X22">
-        <v>5.88</v>
+        <v>5.99</v>
       </c>
       <c r="Y22">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="Z22">
-        <v>2.63</v>
+        <v>3.69</v>
       </c>
       <c r="AA22">
-        <v>1.46</v>
+        <v>0.44</v>
       </c>
       <c r="AB22">
-        <v>1.28</v>
+        <v>0.9</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AD22">
-        <v>2.13</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -26075,7 +26075,7 @@
         + 1e4 * (specialisation_weight * \
                  lpSum([(specialisation_artificial_min[i] + specialisation_artificial_max[i]) \
                         for i in SPECIALISATION_ARTIFICIAL]) \
-                 + gender_weight * lpSum([female_artificial[i] \
+                 + gender_weight * lpSum([female_artificial[i] + male_artificial[i]\
                                          for i in GROUPS]) \
                  + ethnicity_weight * \
                  lpSum([(ethnicity_artificial_min[i] + ethnicity_artificial_max[i]) \
@@ -26139,7 +26139,7 @@
         for k in SPECIALISATIONS:
             problem += lpSum([x[(s, g)] for s in STUDENTS
                              if specialisation[s].lower() == k.lower()]) \
-                + specialisation_artificial_max[(k, g)] &lt;= specialisation_max[k], \
+                - specialisation_artificial_max[(k, g)] &lt;= specialisation_max[k], \
                 'max_spec%s_g%d' % (k, g)
         # Number from each ethnicity must be at least min (relaxed)
         for e in ETHNICITIES:
@@ -26151,12 +26151,12 @@
         for e in ETHNICITIES:
             problem += lpSum([x[(s, g)] for s in STUDENTS
                              if ethnicity[s].lower() == e.lower()]) \
-                + ethnicity_artificial_max[(e, g)] &gt;= ethnicity_max[e], \
+                - ethnicity_artificial_max[(e, g)] &lt;= ethnicity_max[e], \
                 'max_eth%s_g%d' % (e, g)
         # Number of oustanding students must be at least min (relaxed)
         problem += lpSum([x[(s, g)] for s in STUDENTS
                          if gpa[s] &gt;= outstanding_gpa]) \
-            + oustanding_gpa_artificial[g] &gt;= oustanding_count, \
+            + oustanding_gpa_artificial[g] &gt;= oustanding_gpa_min, \
             'out_gpa%s_g%d' % (e, g)
     # ============================================================================
     #   Solve
@@ -26189,7 +26189,9 @@
     print('Specialisations Max: %.0f' %
           sum([specialisation_artificial_max[i].value()
               for i in SPECIALISATION_ARTIFICIAL]))
-    print('Females: %.0f' % sum([female_artificial[i].value()
+    print('Females Min: %.0f' % sum([female_artificial[i].value()
+          for i in GROUPS]))
+    print('Males Min: %.0f' % sum([male_artificial[i].value()
           for i in GROUPS]))
     print('Ethnicities Min: %.0f' %
           sum([ethnicity_artificial_min[i].value() for i in ETHNICITY_ARTIFICIAL]))
@@ -26806,7 +26808,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D9753C3-3E0F-4B56-BC05-053B606AAAB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD451F4C-196B-43E8-923D-68901783E891}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -9,27 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10005" windowHeight="7905" tabRatio="870" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
     <sheet name="Student_Data" sheetId="3" r:id="rId2"/>
     <sheet name="Summary_Results" sheetId="7" r:id="rId3"/>
-    <sheet name="GPA_Chart" sheetId="947" r:id="rId4"/>
-    <sheet name="Gender_Chart" sheetId="948" r:id="rId5"/>
-    <sheet name="Civil_Chart" sheetId="949" r:id="rId6"/>
-    <sheet name="Electrical_Chart" sheetId="950" r:id="rId7"/>
-    <sheet name="CompSys_Chart" sheetId="951" r:id="rId8"/>
-    <sheet name="Software_Chart" sheetId="952" r:id="rId9"/>
-    <sheet name="Mechatronics_Chart" sheetId="953" r:id="rId10"/>
-    <sheet name="Chemmat_Chart" sheetId="954" r:id="rId11"/>
-    <sheet name="Mechanical_Chart" sheetId="955" r:id="rId12"/>
-    <sheet name="Biomedical_Chart" sheetId="956" r:id="rId13"/>
-    <sheet name="EngSci_Chart" sheetId="957" r:id="rId14"/>
-    <sheet name="European(E)_Chart" sheetId="958" r:id="rId15"/>
-    <sheet name="Pacific(E)_Chart" sheetId="959" r:id="rId16"/>
-    <sheet name="Indian(E)_Chart" sheetId="960" r:id="rId17"/>
-    <sheet name="Asian(E)_Chart" sheetId="961" r:id="rId18"/>
+    <sheet name="GPA_Chart" sheetId="1007" r:id="rId4"/>
+    <sheet name="Gender_Chart" sheetId="1008" r:id="rId5"/>
+    <sheet name="Civil_Chart" sheetId="1009" r:id="rId6"/>
+    <sheet name="Electrical_Chart" sheetId="1010" r:id="rId7"/>
+    <sheet name="CompSys_Chart" sheetId="1011" r:id="rId8"/>
+    <sheet name="Software_Chart" sheetId="1012" r:id="rId9"/>
+    <sheet name="Mechatronics_Chart" sheetId="1013" r:id="rId10"/>
+    <sheet name="Chemmat_Chart" sheetId="1014" r:id="rId11"/>
+    <sheet name="Mechanical_Chart" sheetId="1015" r:id="rId12"/>
+    <sheet name="Biomedical_Chart" sheetId="1016" r:id="rId13"/>
+    <sheet name="EngSci_Chart" sheetId="1017" r:id="rId14"/>
+    <sheet name="European(E)_Chart" sheetId="1018" r:id="rId15"/>
+    <sheet name="Pacific(E)_Chart" sheetId="1019" r:id="rId16"/>
+    <sheet name="Indian(E)_Chart" sheetId="1020" r:id="rId17"/>
+    <sheet name="Asian(E)_Chart" sheetId="1021" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="chart_only" localSheetId="1">Student_Data!$K$4</definedName>
@@ -405,9 +405,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Greater than 0?</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>When the optimisation has finished running you will automatically be taken to the Summary_Results sheet containing tables of results. You will also find sheets with charts that you can look at to easily see the quality of the solution provided by the optimisation. In addition, a new Excel workbook will have been created and placed in the same directory as this file. This workbook will contain a list of all the groups and the students in each so that you can easily share the allocation with others.</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1539,11 +1538,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="781668496"/>
-        <c:axId val="781675552"/>
+        <c:axId val="452226480"/>
+        <c:axId val="452235104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="781668496"/>
+        <c:axId val="452226480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,13 +1564,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781675552"/>
+        <c:crossAx val="452235104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="781675552"/>
+        <c:axId val="452235104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1604,14 +1602,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781668496"/>
+        <c:crossAx val="452226480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1653,7 +1650,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1818,11 +1814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="781672808"/>
-        <c:axId val="781678688"/>
+        <c:axId val="462554840"/>
+        <c:axId val="462565032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="781672808"/>
+        <c:axId val="462554840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,14 +1840,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781678688"/>
+        <c:crossAx val="462565032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1859,7 +1854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="781678688"/>
+        <c:axId val="462565032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1884,21 +1879,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781672808"/>
+        <c:crossAx val="462554840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1938,7 +1931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2103,11 +2095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="781679472"/>
-        <c:axId val="781670456"/>
+        <c:axId val="462553272"/>
+        <c:axId val="462553664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="781679472"/>
+        <c:axId val="462553272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,14 +2121,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781670456"/>
+        <c:crossAx val="462553664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2144,7 +2135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="781670456"/>
+        <c:axId val="462553664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2169,21 +2160,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781679472"/>
+        <c:crossAx val="462553272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2223,7 +2212,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2388,11 +2376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="729463096"/>
-        <c:axId val="729475248"/>
+        <c:axId val="462557584"/>
+        <c:axId val="462555232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="729463096"/>
+        <c:axId val="462557584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,14 +2402,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729475248"/>
+        <c:crossAx val="462555232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="729475248"/>
+        <c:axId val="462555232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2454,21 +2441,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729463096"/>
+        <c:crossAx val="462557584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2508,7 +2493,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2673,11 +2657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="729500336"/>
-        <c:axId val="674044616"/>
+        <c:axId val="462557976"/>
+        <c:axId val="462558368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="729500336"/>
+        <c:axId val="462557976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,14 +2683,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674044616"/>
+        <c:crossAx val="462558368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2714,7 +2697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674044616"/>
+        <c:axId val="462558368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2739,21 +2722,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729500336"/>
+        <c:crossAx val="462557976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2793,7 +2774,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2958,11 +2938,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584663768"/>
-        <c:axId val="584664552"/>
+        <c:axId val="462568560"/>
+        <c:axId val="462567776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="584663768"/>
+        <c:axId val="462568560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,14 +2964,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584664552"/>
+        <c:crossAx val="462567776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2999,7 +2978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584664552"/>
+        <c:axId val="462567776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3024,21 +3003,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584663768"/>
+        <c:crossAx val="462568560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3078,7 +3055,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3243,11 +3219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584673960"/>
-        <c:axId val="584671216"/>
+        <c:axId val="462565816"/>
+        <c:axId val="462566208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="584673960"/>
+        <c:axId val="462565816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,14 +3245,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584671216"/>
+        <c:crossAx val="462566208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584671216"/>
+        <c:axId val="462566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3309,21 +3284,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584673960"/>
+        <c:crossAx val="462565816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3363,7 +3336,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3674,11 +3646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="731083616"/>
-        <c:axId val="731084008"/>
+        <c:axId val="452234320"/>
+        <c:axId val="452234712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="731083616"/>
+        <c:axId val="452234320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,14 +3672,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="731084008"/>
+        <c:crossAx val="452234712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3715,7 +3686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="731084008"/>
+        <c:axId val="452234712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3740,21 +3711,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="731083616"/>
+        <c:crossAx val="452234320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3794,7 +3763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3959,11 +3927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="731089888"/>
-        <c:axId val="731090672"/>
+        <c:axId val="462563464"/>
+        <c:axId val="462563072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="731089888"/>
+        <c:axId val="462563464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,14 +3953,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="731090672"/>
+        <c:crossAx val="462563072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4000,7 +3967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="731090672"/>
+        <c:axId val="462563072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4025,21 +3992,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="731089888"/>
+        <c:crossAx val="462563464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4079,7 +4044,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4244,11 +4208,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="729502296"/>
-        <c:axId val="729494848"/>
+        <c:axId val="462561112"/>
+        <c:axId val="462561504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="729502296"/>
+        <c:axId val="462561112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,14 +4234,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729494848"/>
+        <c:crossAx val="462561504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4285,7 +4248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="729494848"/>
+        <c:axId val="462561504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4310,21 +4273,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729502296"/>
+        <c:crossAx val="462561112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4364,7 +4325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4529,11 +4489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="733420424"/>
-        <c:axId val="733423168"/>
+        <c:axId val="462559152"/>
+        <c:axId val="462555624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="733420424"/>
+        <c:axId val="462559152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,14 +4515,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="733423168"/>
+        <c:crossAx val="462555624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4570,7 +4529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="733423168"/>
+        <c:axId val="462555624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4595,21 +4554,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="733420424"/>
+        <c:crossAx val="462559152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4649,7 +4606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4814,11 +4770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="733396512"/>
-        <c:axId val="733410624"/>
+        <c:axId val="462562680"/>
+        <c:axId val="462556408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="733396512"/>
+        <c:axId val="462562680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4840,14 +4796,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="733410624"/>
+        <c:crossAx val="462556408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4855,7 +4810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="733410624"/>
+        <c:axId val="462556408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4880,21 +4835,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="733396512"/>
+        <c:crossAx val="462562680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4934,7 +4887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5099,11 +5051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="674114416"/>
-        <c:axId val="674106576"/>
+        <c:axId val="462554056"/>
+        <c:axId val="462557192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="674114416"/>
+        <c:axId val="462554056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5125,14 +5077,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674106576"/>
+        <c:crossAx val="462557192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5140,7 +5091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674106576"/>
+        <c:axId val="462557192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5165,21 +5116,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674114416"/>
+        <c:crossAx val="462554056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5219,7 +5168,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5384,11 +5332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="674093248"/>
-        <c:axId val="674095208"/>
+        <c:axId val="462562288"/>
+        <c:axId val="462554448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="674093248"/>
+        <c:axId val="462562288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5410,14 +5358,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674095208"/>
+        <c:crossAx val="462554448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5425,7 +5372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674095208"/>
+        <c:axId val="462554448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5450,21 +5397,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674093248"/>
+        <c:crossAx val="462562288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5504,7 +5449,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5669,11 +5613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="363975416"/>
-        <c:axId val="363974632"/>
+        <c:axId val="462564640"/>
+        <c:axId val="462564248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363975416"/>
+        <c:axId val="462564640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5695,14 +5639,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363974632"/>
+        <c:crossAx val="462564248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5710,7 +5653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363974632"/>
+        <c:axId val="462564248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5735,21 +5678,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363975416"/>
+        <c:crossAx val="462564640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7180,7 +7121,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="U3" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
@@ -7685,7 +7626,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -7711,7 +7652,7 @@
         <v>37</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="41"/>
@@ -7786,7 +7727,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -7900,8 +7841,8 @@
   </sheetPr>
   <dimension ref="A1:T686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8031,10 +7972,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8379,7 +8320,7 @@
         <v>1.904800810118406</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="27" t="str">
         <f>IF(K15&gt;0, "Yes", "No")</f>
@@ -8555,7 +8496,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -8609,7 +8550,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -8658,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -8684,10 +8625,10 @@
         <v>3</v>
       </c>
       <c r="J26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -8829,7 +8770,7 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -8858,7 +8799,7 @@
         <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -8910,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
@@ -8936,7 +8877,7 @@
         <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
@@ -25918,7 +25859,7 @@
     <StoredFile>
       <FileName>Untitled</FileName>
       <LanguageName>PuLP</LanguageName>
-      <ModelPaneVisible>false</ModelPaneVisible>
+      <ModelPaneVisible>true</ModelPaneVisible>
       <ModelSettings/>
       <FileText># ============================================================================
 # Group Allocator - allocates students to balanced groups
@@ -25962,7 +25903,7 @@
 outstanding_gpa_weight = factor_out
 # beta is the number to adjust the upper bound on number of
 # type of people in a group
-beta = 1
+beta = 0
 # The GPA of an 'oustanding' student
 outstanding_gpa = 8.00
 SPECIALISATIONS = list()
@@ -26731,41 +26672,35 @@
         Application.DisplayAlerts = False
         sheet.Delete()
         Application.DisplayAlerts = True
-# Make a sheet for each group
-# for g in GROUPS:
-#     count = Application.Worksheets.Count
-#     wb.Sheets.Add(After=wb.Sheets(count))
-#     wb_name = 'Group_%s' % g
-#     wb.ActiveSheet.Name = wb_name
-#     ws = wb.Worksheets(wb_name)
-#     # Headers
-#     ws.Cells(1, 1).Value = 'Group'
-#     ws.Cells(1, 1).Font.Bold = True
-#     ws.Cells(1, 2).Value = 'Name'
-#     ws.Cells(1, 2).Font.Bold = True
-#     ws.Cells(1, 3).Value = 'Gender'
-#     ws.Cells(1, 3).Font.Bold = True
-#     ws.Cells(1, 4).Value = 'UPI'
-#     ws.Cells(1, 4).Font.Bold = True
-#     ws.Cells(1, 5).Value = 'Discipline'
-#     ws.Cells(1, 5).Font.Bold = True
-#     ws.Cells(1, 6).Value = 'UoA Email'
-#     ws.Cells(1, 6).Font.Bold = True
-#     # Data
-#     row_index = 1
-#     for s in students_in_group[g]:
-#         row_index += 1
-#         ws.Cells(row_index, 1).Value = g
-#         ws.Cells(row_index, 2).Value = NAMES[s]
-#         ws.Cells(row_index, 3).Value = gender[s]
-#         ws.Cells(row_index, 4).Value = UPI[s]
-#         ws.Cells(row_index, 5).Value = specialisation[s]
-#         ws.Cells(row_index, 6).Value = '%s@aucklanduni.ac.nz' % UPI[s]
-#     # Activate
-#     ws.Activate()
-#     ws.Cells.Select()
-#     Application.Selection.Columns.AutoFit()
-#     ws.Cells(1, 1).Select()
+#Make a sheet for each group
+for g in GROUPS:
+    count = Application.Worksheets.Count
+    wb.Sheets.Add(After=wb.Sheets(count))
+    wb_name = 'Group_%s' % g
+    wb.ActiveSheet.Name = wb_name
+    ws = wb.Worksheets(wb_name)
+    # Headers
+    ws.Cells(1, 1).Value = 'Group'
+    ws.Cells(1, 1).Font.Bold = True
+    ws.Cells(1, 2).Value = 'Name'
+    ws.Cells(1, 2).Font.Bold = True
+    ws.Cells(1, 3).Value = 'Discipline'
+    ws.Cells(1, 3).Font.Bold = True
+    ws.Cells(1, 4).Value = 'UoA Email'
+    ws.Cells(1, 4).Font.Bold = True
+    # Data
+    row_index = 1
+    for s in students_in_group[g]:
+        row_index += 1
+        ws.Cells(row_index, 1).Value = g
+        ws.Cells(row_index, 2).Value = NAMES[s]
+        ws.Cells(row_index, 3).Value = specialisation[s]
+        ws.Cells(row_index, 4).Value = '%s@aucklanduni.ac.nz' % UPI[s]
+    # Activate
+    ws.Activate()
+    ws.Cells.Select()
+    Application.Selection.Columns.AutoFit()
+    ws.Cells(1, 1).Select()
 wb.Worksheets('All_Groups').Activate()
 wb.Save()
 </FileText>
@@ -26782,7 +26717,7 @@
     <StoredFile>
       <FileName>Untitled</FileName>
       <LanguageName>PuLP</LanguageName>
-      <ModelPaneVisible>false</ModelPaneVisible>
+      <ModelPaneVisible>true</ModelPaneVisible>
       <ModelSettings/>
       <FileText>a = Application.ActiveChart
 xlY = 1
@@ -26808,7 +26743,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD451F4C-196B-43E8-923D-68901783E891}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CD35C9-69A0-4F79-9A2E-F2DB9DD21665}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>

--- a/Group_Allocator.xlsx
+++ b/Group_Allocator.xlsx
@@ -16,21 +16,21 @@
     <sheet name="AboutSupport" sheetId="1052" r:id="rId2"/>
     <sheet name="Student_Data" sheetId="3" r:id="rId3"/>
     <sheet name="Summary_Results" sheetId="7" r:id="rId4"/>
-    <sheet name="GPA_Chart" sheetId="1054" r:id="rId5"/>
-    <sheet name="Gender_Chart" sheetId="1055" r:id="rId6"/>
-    <sheet name="Civil_Chart" sheetId="1056" r:id="rId7"/>
-    <sheet name="Electrical_Chart" sheetId="1057" r:id="rId8"/>
-    <sheet name="CompSys_Chart" sheetId="1058" r:id="rId9"/>
-    <sheet name="Software_Chart" sheetId="1059" r:id="rId10"/>
-    <sheet name="Mechatronics_Chart" sheetId="1060" r:id="rId11"/>
-    <sheet name="Chemmat_Chart" sheetId="1061" r:id="rId12"/>
-    <sheet name="Mechanical_Chart" sheetId="1062" r:id="rId13"/>
-    <sheet name="Biomedical_Chart" sheetId="1063" r:id="rId14"/>
-    <sheet name="EngSci_Chart" sheetId="1064" r:id="rId15"/>
-    <sheet name="European(E)_Chart" sheetId="1065" r:id="rId16"/>
-    <sheet name="Pacific(E)_Chart" sheetId="1066" r:id="rId17"/>
-    <sheet name="Indian(E)_Chart" sheetId="1067" r:id="rId18"/>
-    <sheet name="Asian(E)_Chart" sheetId="1068" r:id="rId19"/>
+    <sheet name="GPA_Chart" sheetId="1069" r:id="rId5"/>
+    <sheet name="Gender_Chart" sheetId="1070" r:id="rId6"/>
+    <sheet name="Civil_Chart" sheetId="1071" r:id="rId7"/>
+    <sheet name="Electrical_Chart" sheetId="1072" r:id="rId8"/>
+    <sheet name="CompSys_Chart" sheetId="1073" r:id="rId9"/>
+    <sheet name="Software_Chart" sheetId="1074" r:id="rId10"/>
+    <sheet name="Mechatronics_Chart" sheetId="1075" r:id="rId11"/>
+    <sheet name="Chemmat_Chart" sheetId="1076" r:id="rId12"/>
+    <sheet name="Mechanical_Chart" sheetId="1077" r:id="rId13"/>
+    <sheet name="Biomedical_Chart" sheetId="1078" r:id="rId14"/>
+    <sheet name="EngSci_Chart" sheetId="1079" r:id="rId15"/>
+    <sheet name="European(E)_Chart" sheetId="1080" r:id="rId16"/>
+    <sheet name="Pacific(E)_Chart" sheetId="1081" r:id="rId17"/>
+    <sheet name="Indian(E)_Chart" sheetId="1082" r:id="rId18"/>
+    <sheet name="Asian(E)_Chart" sheetId="1083" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Student_Data!$A$1:$H$686</definedName>
@@ -868,6 +868,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -879,6 +891,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -894,27 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1015,6 +1015,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1581,11 +1582,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="445443064"/>
-        <c:axId val="445447376"/>
+        <c:axId val="695763312"/>
+        <c:axId val="695764488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445443064"/>
+        <c:axId val="695763312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,12 +1608,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445447376"/>
+        <c:crossAx val="695764488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1620,7 +1622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445447376"/>
+        <c:axId val="695764488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1645,13 +1647,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445443064"/>
+        <c:crossAx val="695763312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,6 +1696,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1857,11 +1861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="456003256"/>
-        <c:axId val="455996592"/>
+        <c:axId val="701896032"/>
+        <c:axId val="701887408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="456003256"/>
+        <c:axId val="701896032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,13 +1887,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455996592"/>
+        <c:crossAx val="701887408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455996592"/>
+        <c:axId val="701887408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -1922,19 +1927,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456003256"/>
+        <c:crossAx val="701896032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1974,6 +1981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2138,11 +2146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455994240"/>
-        <c:axId val="456001688"/>
+        <c:axId val="696731960"/>
+        <c:axId val="696732352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455994240"/>
+        <c:axId val="696731960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,13 +2172,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456001688"/>
+        <c:crossAx val="696732352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456001688"/>
+        <c:axId val="696732352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2203,19 +2212,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455994240"/>
+        <c:crossAx val="696731960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2255,6 +2266,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2419,11 +2431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455998552"/>
-        <c:axId val="455997376"/>
+        <c:axId val="696742544"/>
+        <c:axId val="696735880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455998552"/>
+        <c:axId val="696742544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,13 +2457,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455997376"/>
+        <c:crossAx val="696735880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2459,7 +2472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455997376"/>
+        <c:axId val="696735880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2484,19 +2497,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455998552"/>
+        <c:crossAx val="696742544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2536,6 +2551,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2700,11 +2716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455998160"/>
-        <c:axId val="455999336"/>
+        <c:axId val="696747248"/>
+        <c:axId val="696750776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455998160"/>
+        <c:axId val="696747248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,13 +2742,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455999336"/>
+        <c:crossAx val="696750776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2740,7 +2757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455999336"/>
+        <c:axId val="696750776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -2765,19 +2782,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455998160"/>
+        <c:crossAx val="696747248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2817,6 +2836,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2981,11 +3001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455996984"/>
-        <c:axId val="455995024"/>
+        <c:axId val="696753520"/>
+        <c:axId val="696748032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="455996984"/>
+        <c:axId val="696753520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,13 +3027,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455995024"/>
+        <c:crossAx val="696748032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3021,7 +3042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455995024"/>
+        <c:axId val="696748032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3046,19 +3067,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455996984"/>
+        <c:crossAx val="696753520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3098,6 +3121,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3262,11 +3286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="456003648"/>
-        <c:axId val="455998944"/>
+        <c:axId val="696759008"/>
+        <c:axId val="696759400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="456003648"/>
+        <c:axId val="696759008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,13 +3312,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455998944"/>
+        <c:crossAx val="696759400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3302,7 +3327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455998944"/>
+        <c:axId val="696759400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3327,19 +3352,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456003648"/>
+        <c:crossAx val="696759008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3379,6 +3406,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3689,11 +3717,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445445416"/>
-        <c:axId val="445450904"/>
+        <c:axId val="695748416"/>
+        <c:axId val="695755864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445445416"/>
+        <c:axId val="695748416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,13 +3743,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445450904"/>
+        <c:crossAx val="695755864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3729,7 +3758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445450904"/>
+        <c:axId val="695755864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -3754,19 +3783,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445445416"/>
+        <c:crossAx val="695748416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3806,6 +3837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3970,11 +4002,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445451688"/>
-        <c:axId val="445439928"/>
+        <c:axId val="695751944"/>
+        <c:axId val="695750376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445451688"/>
+        <c:axId val="695751944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,13 +4028,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445439928"/>
+        <c:crossAx val="695750376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +4043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445439928"/>
+        <c:axId val="695750376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4035,19 +4068,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445451688"/>
+        <c:crossAx val="695751944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4087,6 +4122,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4251,11 +4287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445443456"/>
-        <c:axId val="445446592"/>
+        <c:axId val="695749592"/>
+        <c:axId val="695749984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445443456"/>
+        <c:axId val="695749592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,13 +4313,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445446592"/>
+        <c:crossAx val="695749984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4291,7 +4328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445446592"/>
+        <c:axId val="695749984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4316,19 +4353,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445443456"/>
+        <c:crossAx val="695749592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4368,6 +4407,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4532,11 +4572,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445444632"/>
-        <c:axId val="445453648"/>
+        <c:axId val="695755472"/>
+        <c:axId val="711122296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445444632"/>
+        <c:axId val="695755472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,13 +4598,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445453648"/>
+        <c:crossAx val="711122296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4572,7 +4613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445453648"/>
+        <c:axId val="711122296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4597,19 +4638,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445444632"/>
+        <c:crossAx val="695755472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4649,6 +4692,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4813,11 +4857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445454432"/>
-        <c:axId val="445454824"/>
+        <c:axId val="701896424"/>
+        <c:axId val="701888192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445454432"/>
+        <c:axId val="701896424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4839,13 +4883,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445454824"/>
+        <c:crossAx val="701888192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4853,7 +4898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445454824"/>
+        <c:axId val="701888192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -4878,19 +4923,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445454432"/>
+        <c:crossAx val="701896424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4930,6 +4977,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5094,11 +5142,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445441104"/>
-        <c:axId val="445442280"/>
+        <c:axId val="701907400"/>
+        <c:axId val="701905440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445441104"/>
+        <c:axId val="701907400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,13 +5168,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445442280"/>
+        <c:crossAx val="701905440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5134,7 +5183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445442280"/>
+        <c:axId val="701905440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5159,19 +5208,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445441104"/>
+        <c:crossAx val="701907400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5211,6 +5262,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5375,11 +5427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445455216"/>
-        <c:axId val="445455608"/>
+        <c:axId val="701899560"/>
+        <c:axId val="701899952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445455216"/>
+        <c:axId val="701899560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5401,13 +5453,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445455608"/>
+        <c:crossAx val="701899952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5415,7 +5468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445455608"/>
+        <c:axId val="701899952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5440,19 +5493,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445455216"/>
+        <c:crossAx val="701899560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5492,6 +5547,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5656,11 +5712,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445453256"/>
-        <c:axId val="445444240"/>
+        <c:axId val="701914848"/>
+        <c:axId val="701910144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445453256"/>
+        <c:axId val="701914848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5682,13 +5738,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445444240"/>
+        <c:crossAx val="701910144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5696,7 +5753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445444240"/>
+        <c:axId val="701910144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="36"/>
@@ -5721,19 +5778,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445453256"/>
+        <c:crossAx val="701914848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6861,20 +6920,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -6887,61 +6946,61 @@
     </row>
     <row r="2" spans="1:19" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:24" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:24" ht="88.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
     </row>
     <row r="25" spans="1:24" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="26" spans="1:24" ht="149.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
     </row>
     <row r="32" spans="1:24" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
     </row>
     <row r="33" spans="1:24" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="U33" s="36"/>
@@ -7014,20 +7073,20 @@
       <c r="J44" s="21"/>
     </row>
     <row r="45" spans="1:24" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="21"/>
@@ -7151,20 +7210,20 @@
       <c r="J56" s="21"/>
     </row>
     <row r="57" spans="1:11" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="55"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:11" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="21"/>
@@ -7304,62 +7363,62 @@
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="40"/>
@@ -7462,27 +7521,27 @@
       <c r="L11" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -26314,12 +26373,12 @@
 ws.Cells(1, 2).Font.Bold = True
 # ws.Cells(1, 3).Value = 'Gender'
 # ws.Cells(1, 3).Font.Bold = True
-# ws.Cells(1, 3).Value = 'UPI'
-# ws.Cells(1, 3).Font.Bold = True
-ws.Cells(1, 3).Value = 'Discipline'
+ws.Cells(1, 3).Value = 'UPI'
 ws.Cells(1, 3).Font.Bold = True
-ws.Cells(1, 4).Value = 'Email'
+ws.Cells(1, 4).Value = 'Discipline'
 ws.Cells(1, 4).Font.Bold = True
+ws.Cells(1, 5).Value = 'UoA Email'
+ws.Cells(1, 5).Font.Bold = True
 # Data
 row_index = 1
 for g in GROUPS:
@@ -26328,9 +26387,9 @@
         ws.Cells(row_index, 1).Value = g
         ws.Cells(row_index, 2).Value = NAMES[s]
         # ws.Cells(row_index, 3).Value = gender[s]
-        # ws.Cells(row_index, 3).Value = UPI[s]
-        ws.Cells(row_index, 3).Value = specialisation[s]
-        ws.Cells(row_index, 4).Value = '%s@aucklanduni.ac.nz' % UPI[s]
+        ws.Cells(row_index, 3).Value = UPI[s]
+        ws.Cells(row_index, 4).Value = specialisation[s]
+        ws.Cells(row_index, 5).Value = '%s@aucklanduni.ac.nz' % UPI[s]
         # Space between each group
     #row_index += 1
 ws.Activate()
@@ -26354,18 +26413,21 @@
     ws.Cells(1, 1).Font.Bold = True
     ws.Cells(1, 2).Value = 'Name'
     ws.Cells(1, 2).Font.Bold = True
-    ws.Cells(1, 3).Value = 'Discipline'
+    ws.Cells(1, 3).Value = 'UPI'
     ws.Cells(1, 3).Font.Bold = True
-    ws.Cells(1, 4).Value = 'UoA Email'
+    ws.Cells(1, 4).Value = 'Discipline'
     ws.Cells(1, 4).Font.Bold = True
+    ws.Cells(1, 5).Value = 'UoA Email'
+    ws.Cells(1, 5).Font.Bold = True
     # Data
     row_index = 1
     for s in students_in_group[g]:
         row_index += 1
         ws.Cells(row_index, 1).Value = g
         ws.Cells(row_index, 2).Value = NAMES[s]
-        ws.Cells(row_index, 3).Value = specialisation[s]
-        ws.Cells(row_index, 4).Value = '%s@aucklanduni.ac.nz' % UPI[s]
+        ws.Cells(row_index, 3).Value = UPI[s]
+        ws.Cells(row_index, 4).Value = specialisation[s]
+        ws.Cells(row_index, 5).Value = '%s@aucklanduni.ac.nz' % UPI[s]
     # Activate
     ws.Activate()
     ws.Cells.Select()
@@ -26421,7 +26483,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1DBD013-4D4D-48D8-B223-C7DE367E96CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87204D52-C514-42D4-BFB6-7B1AB7087945}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
